--- a/Data_SystemsSerology.xlsx
+++ b/Data_SystemsSerology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eddie/Desktop/Alter-Fortune/Projects/IV BCG/Paper/Nature Immunology Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eddie/Desktop/Alter-Fortune/Projects/IV BCG/Paper/Nature Immunology Submission/Revised/revision_3/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C22D46-5DEC-B544-B5D8-42259AACD914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F8668C-4660-4143-9B40-45FB2528218F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="21000" xr2:uid="{72BFC10E-94F8-6A46-880F-8425055934BF}"/>
+    <workbookView xWindow="220" yWindow="440" windowWidth="24860" windowHeight="16740" activeTab="3" xr2:uid="{72BFC10E-94F8-6A46-880F-8425055934BF}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="391">
   <si>
     <t>ID</t>
   </si>
@@ -865,9 +865,6 @@
     <t>HspX.IgG1</t>
   </si>
   <si>
-    <t>GroES.IgG1</t>
-  </si>
-  <si>
     <t>PPD.IgG1</t>
   </si>
   <si>
@@ -875,12 +872,6 @@
   </si>
   <si>
     <t>PstS1.IgG1</t>
-  </si>
-  <si>
-    <t>Ag85.IgG1</t>
-  </si>
-  <si>
-    <t>ESAT6_CFP10.IgG1</t>
   </si>
   <si>
     <t>Apa.IgG1</t>
@@ -892,9 +883,6 @@
     <t>HspX.IgA</t>
   </si>
   <si>
-    <t>GroES.IgA</t>
-  </si>
-  <si>
     <t>PPD.IgA</t>
   </si>
   <si>
@@ -902,12 +890,6 @@
   </si>
   <si>
     <t>PstS1.IgA</t>
-  </si>
-  <si>
-    <t>Ag85.IgA</t>
-  </si>
-  <si>
-    <t>ESAT6_CFP10.IgA</t>
   </si>
   <si>
     <t>EBOV.IgA</t>
@@ -919,9 +901,6 @@
     <t>HspX.IgM</t>
   </si>
   <si>
-    <t>GroES.IgM</t>
-  </si>
-  <si>
     <t>PPD.IgM</t>
   </si>
   <si>
@@ -929,12 +908,6 @@
   </si>
   <si>
     <t>PstS1.IgM</t>
-  </si>
-  <si>
-    <t>Ag85.IgM</t>
-  </si>
-  <si>
-    <t>ESAT6_CFP10.IgM</t>
   </si>
   <si>
     <t>EBOV.IgM</t>
@@ -1048,9 +1021,6 @@
     <t>Wk7.HspX.IgG1</t>
   </si>
   <si>
-    <t>Wk7.GroES.IgG1</t>
-  </si>
-  <si>
     <t>Wk7.PPD.IgG1</t>
   </si>
   <si>
@@ -1058,12 +1028,6 @@
   </si>
   <si>
     <t>Wk7.PstS1.IgG1</t>
-  </si>
-  <si>
-    <t>Wk7.Ag85.IgG1</t>
-  </si>
-  <si>
-    <t>Wk7.ESAT6_CFP10.IgG1</t>
   </si>
   <si>
     <t>Wk7.Apa.IgG1</t>
@@ -1075,9 +1039,6 @@
     <t>Wk7.HspX.IgA</t>
   </si>
   <si>
-    <t>Wk7.GroES.IgA</t>
-  </si>
-  <si>
     <t>Wk7.PPD.IgA</t>
   </si>
   <si>
@@ -1085,12 +1046,6 @@
   </si>
   <si>
     <t>Wk7.PstS1.IgA</t>
-  </si>
-  <si>
-    <t>Wk7.Ag85.IgA</t>
-  </si>
-  <si>
-    <t>Wk7.ESAT6_CFP10.IgA</t>
   </si>
   <si>
     <t>Wk7.EBOV.IgA</t>
@@ -1102,9 +1057,6 @@
     <t>Wk7.HspX.IgM</t>
   </si>
   <si>
-    <t>Wk7.GroES.IgM</t>
-  </si>
-  <si>
     <t>Wk7.PPD.IgM</t>
   </si>
   <si>
@@ -1112,12 +1064,6 @@
   </si>
   <si>
     <t>Wk7.PstS1.IgM</t>
-  </si>
-  <si>
-    <t>Wk7.Ag85.IgM</t>
-  </si>
-  <si>
-    <t>Wk7.ESAT6_CFP10.IgM</t>
   </si>
   <si>
     <t>Wk7.EBOV.IgM</t>
@@ -1129,9 +1075,6 @@
     <t>Nec.HspX.IgG1</t>
   </si>
   <si>
-    <t>Nec.GroES.IgG1</t>
-  </si>
-  <si>
     <t>Nec.PPD.IgG1</t>
   </si>
   <si>
@@ -1139,12 +1082,6 @@
   </si>
   <si>
     <t>Nec.PstS1.IgG1</t>
-  </si>
-  <si>
-    <t>Nec.Ag85.IgG1</t>
-  </si>
-  <si>
-    <t>Nec.ESAT6_CFP10.IgG1</t>
   </si>
   <si>
     <t>Nec.Apa.IgG1</t>
@@ -1156,9 +1093,6 @@
     <t>Nec.HspX.IgA</t>
   </si>
   <si>
-    <t>Nec.GroES.IgA</t>
-  </si>
-  <si>
     <t>Nec.PPD.IgA</t>
   </si>
   <si>
@@ -1166,12 +1100,6 @@
   </si>
   <si>
     <t>Nec.PstS1.IgA</t>
-  </si>
-  <si>
-    <t>Nec.Ag85.IgA</t>
-  </si>
-  <si>
-    <t>Nec.ESAT6_CFP10.IgA</t>
   </si>
   <si>
     <t>Nec.EBOV.IgA</t>
@@ -1183,9 +1111,6 @@
     <t>Nec.HspX.IgM</t>
   </si>
   <si>
-    <t>Nec.GroES.IgM</t>
-  </si>
-  <si>
     <t>Nec.PPD.IgM</t>
   </si>
   <si>
@@ -1193,12 +1118,6 @@
   </si>
   <si>
     <t>Nec.PstS1.IgM</t>
-  </si>
-  <si>
-    <t>Nec.Ag85.IgM</t>
-  </si>
-  <si>
-    <t>Nec.ESAT6_CFP10.IgM</t>
   </si>
   <si>
     <t>Nec.EBOV.IgM</t>
@@ -1314,7 +1233,7 @@
     <t>STDEV</t>
   </si>
   <si>
-    <t>Data associated with Irvine et al. "Robust IgM Responses following vaccination are associated with prevention of Mycobacterium tuberculosis infection in macaques"</t>
+    <t>Data associated with Irvine et al. "Robust IgM responses following intravenous vaccination with Bacille Calmette-Guerin associate with prevention of Mycobacterium tuberculosis infection in macaques"</t>
   </si>
 </sst>
 </file>
@@ -1719,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361D868B-74BA-7A49-B121-F3B92A5E627F}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,97 +1651,97 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +1754,7 @@
   <dimension ref="A1:HL52"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34277,7 +34196,7 @@
     </row>
     <row r="50" spans="1:220" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="D50">
         <v>67.04497666666667</v>
@@ -34933,7 +34852,7 @@
     </row>
     <row r="52" spans="1:220" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="C52" s="8">
         <f>STDEV(C2:C50)</f>
@@ -35818,7 +35737,7 @@
   <dimension ref="A1:DX49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54744,15 +54663,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2369DE6-19E5-504E-94FF-FEAFE9578E97}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -54813,2902 +54732,2002 @@
       <c r="T1" t="s">
         <v>291</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>292</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B2" t="s">
         <v>293</v>
-      </c>
-      <c r="W1" t="s">
-        <v>294</v>
-      </c>
-      <c r="X1" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>302</v>
       </c>
       <c r="C2">
         <v>729.75</v>
       </c>
       <c r="D2">
-        <v>467.75</v>
+        <v>406.5</v>
       </c>
       <c r="E2">
-        <v>406.5</v>
+        <v>3948.5</v>
       </c>
       <c r="F2">
-        <v>3948.5</v>
+        <v>257.75</v>
       </c>
       <c r="G2">
-        <v>257.75</v>
+        <v>416.5</v>
       </c>
       <c r="H2">
-        <v>631</v>
+        <v>146.75</v>
       </c>
       <c r="I2">
-        <v>693.5</v>
+        <v>245.25</v>
       </c>
       <c r="J2">
-        <v>416.5</v>
+        <v>351.5</v>
       </c>
       <c r="K2">
-        <v>146.75</v>
+        <v>545.75</v>
       </c>
       <c r="L2">
-        <v>245.25</v>
+        <v>276.25</v>
       </c>
       <c r="M2">
-        <v>390.75</v>
+        <v>131.75</v>
       </c>
       <c r="N2">
-        <v>351.5</v>
+        <v>362.5</v>
       </c>
       <c r="O2">
-        <v>545.75</v>
+        <v>2430.75</v>
       </c>
       <c r="P2">
-        <v>276.25</v>
+        <v>1663</v>
       </c>
       <c r="Q2">
-        <v>449.25</v>
+        <v>1589</v>
       </c>
       <c r="R2">
-        <v>384.75</v>
+        <v>2267</v>
       </c>
       <c r="S2">
-        <v>131.75</v>
+        <v>220.5</v>
       </c>
       <c r="T2">
-        <v>362.5</v>
-      </c>
-      <c r="U2">
-        <v>2430.75</v>
-      </c>
-      <c r="V2">
-        <v>1744.5</v>
-      </c>
-      <c r="W2">
-        <v>1663</v>
-      </c>
-      <c r="X2">
-        <v>1589</v>
-      </c>
-      <c r="Y2">
-        <v>2267</v>
-      </c>
-      <c r="Z2">
-        <v>2251</v>
-      </c>
-      <c r="AA2">
-        <v>1790.5</v>
-      </c>
-      <c r="AB2">
-        <v>220.5</v>
-      </c>
-      <c r="AC2">
         <v>1428.75</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C3">
         <v>666.25</v>
       </c>
       <c r="D3">
-        <v>484.5</v>
+        <v>457.5</v>
       </c>
       <c r="E3">
-        <v>457.5</v>
+        <v>1375</v>
       </c>
       <c r="F3">
-        <v>1375</v>
+        <v>277.5</v>
       </c>
       <c r="G3">
-        <v>277.5</v>
+        <v>448.25</v>
       </c>
       <c r="H3">
-        <v>678.75</v>
+        <v>139</v>
       </c>
       <c r="I3">
-        <v>791.25</v>
+        <v>280</v>
       </c>
       <c r="J3">
-        <v>448.25</v>
+        <v>528.5</v>
       </c>
       <c r="K3">
-        <v>139</v>
+        <v>581.5</v>
       </c>
       <c r="L3">
-        <v>280</v>
+        <v>393.5</v>
       </c>
       <c r="M3">
-        <v>576</v>
+        <v>133</v>
       </c>
       <c r="N3">
-        <v>528.5</v>
+        <v>493.25</v>
       </c>
       <c r="O3">
-        <v>581.5</v>
+        <v>1785.5</v>
       </c>
       <c r="P3">
-        <v>393.5</v>
+        <v>1606</v>
       </c>
       <c r="Q3">
-        <v>632.25</v>
+        <v>685.5</v>
       </c>
       <c r="R3">
-        <v>557</v>
+        <v>1910.75</v>
       </c>
       <c r="S3">
-        <v>133</v>
+        <v>253.25</v>
       </c>
       <c r="T3">
-        <v>493.25</v>
-      </c>
-      <c r="U3">
-        <v>1785.5</v>
-      </c>
-      <c r="V3">
-        <v>1783.5</v>
-      </c>
-      <c r="W3">
-        <v>1606</v>
-      </c>
-      <c r="X3">
-        <v>685.5</v>
-      </c>
-      <c r="Y3">
-        <v>1910.75</v>
-      </c>
-      <c r="Z3">
-        <v>2254.25</v>
-      </c>
-      <c r="AA3">
-        <v>1756.25</v>
-      </c>
-      <c r="AB3">
-        <v>253.25</v>
-      </c>
-      <c r="AC3">
         <v>1329</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C4">
         <v>254.75</v>
       </c>
       <c r="D4">
-        <v>171</v>
+        <v>152.5</v>
       </c>
       <c r="E4">
+        <v>224.75</v>
+      </c>
+      <c r="F4">
+        <v>138.5</v>
+      </c>
+      <c r="G4">
         <v>152.5</v>
       </c>
-      <c r="F4">
-        <v>224.75</v>
-      </c>
-      <c r="G4">
-        <v>138.5</v>
-      </c>
       <c r="H4">
-        <v>251.5</v>
+        <v>145.75</v>
       </c>
       <c r="I4">
-        <v>257</v>
+        <v>265.75</v>
       </c>
       <c r="J4">
-        <v>152.5</v>
+        <v>779.75</v>
       </c>
       <c r="K4">
-        <v>145.75</v>
+        <v>272.75</v>
       </c>
       <c r="L4">
-        <v>265.75</v>
+        <v>531</v>
       </c>
       <c r="M4">
-        <v>795.5</v>
+        <v>141.5</v>
       </c>
       <c r="N4">
-        <v>779.75</v>
+        <v>622</v>
       </c>
       <c r="O4">
-        <v>272.75</v>
+        <v>3065</v>
       </c>
       <c r="P4">
-        <v>531</v>
+        <v>2838.25</v>
       </c>
       <c r="Q4">
-        <v>1054</v>
+        <v>1407.25</v>
       </c>
       <c r="R4">
-        <v>806.5</v>
+        <v>3685.25</v>
       </c>
       <c r="S4">
-        <v>141.5</v>
+        <v>587.5</v>
       </c>
       <c r="T4">
-        <v>622</v>
-      </c>
-      <c r="U4">
-        <v>3065</v>
-      </c>
-      <c r="V4">
-        <v>3336.5</v>
-      </c>
-      <c r="W4">
-        <v>2838.25</v>
-      </c>
-      <c r="X4">
-        <v>1407.25</v>
-      </c>
-      <c r="Y4">
-        <v>3685.25</v>
-      </c>
-      <c r="Z4">
-        <v>4252</v>
-      </c>
-      <c r="AA4">
-        <v>3837.5</v>
-      </c>
-      <c r="AB4">
-        <v>587.5</v>
-      </c>
-      <c r="AC4">
         <v>2455.5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C5">
         <v>1160.5</v>
       </c>
       <c r="D5">
-        <v>679.5</v>
+        <v>534.25</v>
       </c>
       <c r="E5">
-        <v>534.25</v>
+        <v>440</v>
       </c>
       <c r="F5">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="G5">
-        <v>353</v>
+        <v>470.75</v>
       </c>
       <c r="H5">
-        <v>788.25</v>
+        <v>155.25</v>
       </c>
       <c r="I5">
-        <v>957.5</v>
+        <v>255.75</v>
       </c>
       <c r="J5">
-        <v>470.75</v>
+        <v>302</v>
       </c>
       <c r="K5">
-        <v>155.25</v>
+        <v>293</v>
       </c>
       <c r="L5">
-        <v>255.75</v>
+        <v>228</v>
       </c>
       <c r="M5">
-        <v>323.5</v>
+        <v>124.75</v>
       </c>
       <c r="N5">
-        <v>302</v>
+        <v>297.25</v>
       </c>
       <c r="O5">
-        <v>293</v>
+        <v>4019.5</v>
       </c>
       <c r="P5">
-        <v>228</v>
+        <v>3522</v>
       </c>
       <c r="Q5">
-        <v>381.5</v>
+        <v>2131.25</v>
       </c>
       <c r="R5">
-        <v>358.75</v>
+        <v>6944.25</v>
       </c>
       <c r="S5">
-        <v>124.75</v>
+        <v>478.5</v>
       </c>
       <c r="T5">
-        <v>297.25</v>
-      </c>
-      <c r="U5">
-        <v>4019.5</v>
-      </c>
-      <c r="V5">
-        <v>4225.75</v>
-      </c>
-      <c r="W5">
-        <v>3522</v>
-      </c>
-      <c r="X5">
-        <v>2131.25</v>
-      </c>
-      <c r="Y5">
-        <v>6944.25</v>
-      </c>
-      <c r="Z5">
-        <v>4468.25</v>
-      </c>
-      <c r="AA5">
-        <v>4049</v>
-      </c>
-      <c r="AB5">
-        <v>478.5</v>
-      </c>
-      <c r="AC5">
         <v>2801.75</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C6">
         <v>570.75</v>
       </c>
       <c r="D6">
-        <v>323.75</v>
+        <v>259</v>
       </c>
       <c r="E6">
-        <v>259</v>
+        <v>231.5</v>
       </c>
       <c r="F6">
-        <v>231.5</v>
+        <v>173.25</v>
       </c>
       <c r="G6">
-        <v>173.25</v>
+        <v>276.75</v>
       </c>
       <c r="H6">
-        <v>421.5</v>
+        <v>146.5</v>
       </c>
       <c r="I6">
-        <v>513.5</v>
+        <v>197.5</v>
       </c>
       <c r="J6">
-        <v>276.75</v>
+        <v>403</v>
       </c>
       <c r="K6">
-        <v>146.5</v>
+        <v>204.25</v>
       </c>
       <c r="L6">
-        <v>197.5</v>
+        <v>300.25</v>
       </c>
       <c r="M6">
-        <v>415.5</v>
+        <v>123.25</v>
       </c>
       <c r="N6">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="O6">
-        <v>204.25</v>
+        <v>2479.25</v>
       </c>
       <c r="P6">
-        <v>300.25</v>
+        <v>2208.5</v>
       </c>
       <c r="Q6">
-        <v>529.25</v>
+        <v>1289.75</v>
       </c>
       <c r="R6">
-        <v>443.25</v>
+        <v>2898.75</v>
       </c>
       <c r="S6">
-        <v>123.25</v>
+        <v>352.5</v>
       </c>
       <c r="T6">
-        <v>367</v>
-      </c>
-      <c r="U6">
-        <v>2479.25</v>
-      </c>
-      <c r="V6">
-        <v>2587</v>
-      </c>
-      <c r="W6">
-        <v>2208.5</v>
-      </c>
-      <c r="X6">
-        <v>1289.75</v>
-      </c>
-      <c r="Y6">
-        <v>2898.75</v>
-      </c>
-      <c r="Z6">
-        <v>3395.25</v>
-      </c>
-      <c r="AA6">
-        <v>2428</v>
-      </c>
-      <c r="AB6">
-        <v>352.5</v>
-      </c>
-      <c r="AC6">
         <v>1751.75</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C7">
         <v>336.25</v>
       </c>
       <c r="D7">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="E7">
-        <v>166</v>
+        <v>1298.25</v>
       </c>
       <c r="F7">
-        <v>1298.25</v>
+        <v>183.5</v>
       </c>
       <c r="G7">
-        <v>183.5</v>
+        <v>195.75</v>
       </c>
       <c r="H7">
-        <v>298.25</v>
+        <v>143.5</v>
       </c>
       <c r="I7">
-        <v>374.5</v>
+        <v>144.5</v>
       </c>
       <c r="J7">
-        <v>195.75</v>
+        <v>196.5</v>
       </c>
       <c r="K7">
-        <v>143.5</v>
+        <v>348.5</v>
       </c>
       <c r="L7">
-        <v>144.5</v>
+        <v>153.5</v>
       </c>
       <c r="M7">
-        <v>213.75</v>
+        <v>122.25</v>
       </c>
       <c r="N7">
-        <v>196.5</v>
+        <v>197.5</v>
       </c>
       <c r="O7">
-        <v>348.5</v>
+        <v>2832</v>
       </c>
       <c r="P7">
-        <v>153.5</v>
+        <v>2344.5</v>
       </c>
       <c r="Q7">
-        <v>263.25</v>
+        <v>2036.5</v>
       </c>
       <c r="R7">
-        <v>221</v>
+        <v>4221.25</v>
       </c>
       <c r="S7">
-        <v>122.25</v>
+        <v>272.75</v>
       </c>
       <c r="T7">
-        <v>197.5</v>
-      </c>
-      <c r="U7">
-        <v>2832</v>
-      </c>
-      <c r="V7">
-        <v>2773</v>
-      </c>
-      <c r="W7">
-        <v>2344.5</v>
-      </c>
-      <c r="X7">
-        <v>2036.5</v>
-      </c>
-      <c r="Y7">
-        <v>4221.25</v>
-      </c>
-      <c r="Z7">
-        <v>4031.5</v>
-      </c>
-      <c r="AA7">
-        <v>2807.5</v>
-      </c>
-      <c r="AB7">
-        <v>272.75</v>
-      </c>
-      <c r="AC7">
         <v>1840</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C8">
         <v>337.75</v>
       </c>
       <c r="D8">
-        <v>269.5</v>
+        <v>229.5</v>
       </c>
       <c r="E8">
-        <v>229.5</v>
+        <v>312.25</v>
       </c>
       <c r="F8">
-        <v>312.25</v>
+        <v>181.5</v>
       </c>
       <c r="G8">
-        <v>181.5</v>
+        <v>227.5</v>
       </c>
       <c r="H8">
-        <v>410.25</v>
+        <v>164.75</v>
       </c>
       <c r="I8">
-        <v>444.5</v>
+        <v>151.25</v>
       </c>
       <c r="J8">
-        <v>227.5</v>
+        <v>269.25</v>
       </c>
       <c r="K8">
-        <v>164.75</v>
+        <v>200</v>
       </c>
       <c r="L8">
-        <v>151.25</v>
+        <v>216</v>
       </c>
       <c r="M8">
-        <v>305</v>
+        <v>127.5</v>
       </c>
       <c r="N8">
-        <v>269.25</v>
+        <v>271.5</v>
       </c>
       <c r="O8">
-        <v>200</v>
+        <v>2466</v>
       </c>
       <c r="P8">
-        <v>216</v>
+        <v>2238.5</v>
       </c>
       <c r="Q8">
-        <v>372.5</v>
+        <v>789.25</v>
       </c>
       <c r="R8">
-        <v>301</v>
+        <v>3885.25</v>
       </c>
       <c r="S8">
-        <v>127.5</v>
+        <v>203.5</v>
       </c>
       <c r="T8">
-        <v>271.5</v>
-      </c>
-      <c r="U8">
-        <v>2466</v>
-      </c>
-      <c r="V8">
-        <v>2402</v>
-      </c>
-      <c r="W8">
-        <v>2238.5</v>
-      </c>
-      <c r="X8">
-        <v>789.25</v>
-      </c>
-      <c r="Y8">
-        <v>3885.25</v>
-      </c>
-      <c r="Z8">
-        <v>3834.5</v>
-      </c>
-      <c r="AA8">
-        <v>2195</v>
-      </c>
-      <c r="AB8">
-        <v>203.5</v>
-      </c>
-      <c r="AC8">
         <v>1736.25</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C9">
         <v>466.75</v>
       </c>
       <c r="D9">
-        <v>284.5</v>
+        <v>211.75</v>
       </c>
       <c r="E9">
-        <v>211.75</v>
+        <v>284</v>
       </c>
       <c r="F9">
-        <v>284</v>
+        <v>185.5</v>
       </c>
       <c r="G9">
-        <v>185.5</v>
+        <v>215</v>
       </c>
       <c r="H9">
-        <v>362.75</v>
+        <v>146</v>
       </c>
       <c r="I9">
-        <v>550.5</v>
+        <v>146.25</v>
       </c>
       <c r="J9">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K9">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="L9">
-        <v>146.25</v>
+        <v>162.25</v>
       </c>
       <c r="M9">
-        <v>221.5</v>
+        <v>124.5</v>
       </c>
       <c r="N9">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O9">
-        <v>191</v>
+        <v>1997.25</v>
       </c>
       <c r="P9">
-        <v>162.25</v>
+        <v>3602.5</v>
       </c>
       <c r="Q9">
-        <v>288.75</v>
+        <v>1215.25</v>
       </c>
       <c r="R9">
-        <v>254.25</v>
+        <v>4344.75</v>
       </c>
       <c r="S9">
-        <v>124.5</v>
+        <v>352.5</v>
       </c>
       <c r="T9">
-        <v>205</v>
-      </c>
-      <c r="U9">
-        <v>1997.25</v>
-      </c>
-      <c r="V9">
-        <v>4185.25</v>
-      </c>
-      <c r="W9">
-        <v>3602.5</v>
-      </c>
-      <c r="X9">
-        <v>1215.25</v>
-      </c>
-      <c r="Y9">
-        <v>4344.75</v>
-      </c>
-      <c r="Z9">
-        <v>5496.5</v>
-      </c>
-      <c r="AA9">
-        <v>4597.75</v>
-      </c>
-      <c r="AB9">
-        <v>352.5</v>
-      </c>
-      <c r="AC9">
         <v>2545</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" t="s">
         <v>301</v>
-      </c>
-      <c r="B10" t="s">
-        <v>310</v>
       </c>
       <c r="C10">
         <v>563.5</v>
       </c>
       <c r="D10">
-        <v>334</v>
+        <v>297.5</v>
       </c>
       <c r="E10">
-        <v>297.5</v>
+        <v>5622.75</v>
       </c>
       <c r="F10">
-        <v>5622.75</v>
+        <v>344.5</v>
       </c>
       <c r="G10">
-        <v>344.5</v>
+        <v>320.75</v>
       </c>
       <c r="H10">
-        <v>460.5</v>
+        <v>163.5</v>
       </c>
       <c r="I10">
-        <v>562.25</v>
+        <v>204</v>
       </c>
       <c r="J10">
-        <v>320.75</v>
+        <v>417.75</v>
       </c>
       <c r="K10">
-        <v>163.5</v>
+        <v>680.5</v>
       </c>
       <c r="L10">
-        <v>204</v>
+        <v>324.75</v>
       </c>
       <c r="M10">
-        <v>444.5</v>
+        <v>124.25</v>
       </c>
       <c r="N10">
-        <v>417.75</v>
+        <v>364</v>
       </c>
       <c r="O10">
-        <v>680.5</v>
+        <v>2904</v>
       </c>
       <c r="P10">
-        <v>324.75</v>
+        <v>2623</v>
       </c>
       <c r="Q10">
-        <v>579.25</v>
+        <v>1985.25</v>
       </c>
       <c r="R10">
-        <v>495.25</v>
+        <v>3919.25</v>
       </c>
       <c r="S10">
-        <v>124.25</v>
+        <v>231.25</v>
       </c>
       <c r="T10">
-        <v>364</v>
-      </c>
-      <c r="U10">
-        <v>2904</v>
-      </c>
-      <c r="V10">
-        <v>2986</v>
-      </c>
-      <c r="W10">
-        <v>2623</v>
-      </c>
-      <c r="X10">
-        <v>1985.25</v>
-      </c>
-      <c r="Y10">
-        <v>3919.25</v>
-      </c>
-      <c r="Z10">
-        <v>4041.5</v>
-      </c>
-      <c r="AA10">
-        <v>3108</v>
-      </c>
-      <c r="AB10">
-        <v>231.25</v>
-      </c>
-      <c r="AC10">
         <v>2097</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C11">
         <v>809</v>
       </c>
       <c r="D11">
-        <v>653</v>
+        <v>831.75</v>
       </c>
       <c r="E11">
-        <v>831.75</v>
+        <v>25818.75</v>
       </c>
       <c r="F11">
-        <v>25818.75</v>
+        <v>795</v>
       </c>
       <c r="G11">
-        <v>795</v>
+        <v>1063</v>
       </c>
       <c r="H11">
-        <v>983.25</v>
+        <v>153.5</v>
       </c>
       <c r="I11">
-        <v>2045.25</v>
+        <v>187</v>
       </c>
       <c r="J11">
-        <v>1063</v>
+        <v>387</v>
       </c>
       <c r="K11">
-        <v>153.5</v>
+        <v>1388.25</v>
       </c>
       <c r="L11">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="M11">
-        <v>349.5</v>
+        <v>121.5</v>
       </c>
       <c r="N11">
-        <v>387</v>
+        <v>383.5</v>
       </c>
       <c r="O11">
-        <v>1388.25</v>
+        <v>2520</v>
       </c>
       <c r="P11">
-        <v>295</v>
+        <v>3345.25</v>
       </c>
       <c r="Q11">
-        <v>444.5</v>
+        <v>1393</v>
       </c>
       <c r="R11">
-        <v>457.75</v>
+        <v>6195.75</v>
       </c>
       <c r="S11">
-        <v>121.5</v>
+        <v>230.75</v>
       </c>
       <c r="T11">
-        <v>383.5</v>
-      </c>
-      <c r="U11">
-        <v>2520</v>
-      </c>
-      <c r="V11">
-        <v>3127.25</v>
-      </c>
-      <c r="W11">
-        <v>3345.25</v>
-      </c>
-      <c r="X11">
-        <v>1393</v>
-      </c>
-      <c r="Y11">
-        <v>6195.75</v>
-      </c>
-      <c r="Z11">
-        <v>4575.75</v>
-      </c>
-      <c r="AA11">
-        <v>3298.75</v>
-      </c>
-      <c r="AB11">
-        <v>230.75</v>
-      </c>
-      <c r="AC11">
         <v>2780.25</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C12">
         <v>1637</v>
       </c>
       <c r="D12">
-        <v>1077.5</v>
+        <v>1004.25</v>
       </c>
       <c r="E12">
-        <v>1004.25</v>
+        <v>6520</v>
       </c>
       <c r="F12">
-        <v>6520</v>
+        <v>640.5</v>
       </c>
       <c r="G12">
-        <v>640.5</v>
+        <v>1129</v>
       </c>
       <c r="H12">
-        <v>1396.25</v>
+        <v>190</v>
       </c>
       <c r="I12">
-        <v>1813.5</v>
+        <v>194.25</v>
       </c>
       <c r="J12">
-        <v>1129</v>
+        <v>358.5</v>
       </c>
       <c r="K12">
-        <v>190</v>
+        <v>677.75</v>
       </c>
       <c r="L12">
-        <v>194.25</v>
+        <v>277.75</v>
       </c>
       <c r="M12">
-        <v>373</v>
+        <v>126.5</v>
       </c>
       <c r="N12">
-        <v>358.5</v>
+        <v>340.25</v>
       </c>
       <c r="O12">
-        <v>677.75</v>
+        <v>2039.25</v>
       </c>
       <c r="P12">
-        <v>277.75</v>
+        <v>3538.25</v>
       </c>
       <c r="Q12">
-        <v>454.25</v>
+        <v>1943.5</v>
       </c>
       <c r="R12">
-        <v>398.75</v>
+        <v>5091.75</v>
       </c>
       <c r="S12">
-        <v>126.5</v>
+        <v>359.75</v>
       </c>
       <c r="T12">
-        <v>340.25</v>
-      </c>
-      <c r="U12">
-        <v>2039.25</v>
-      </c>
-      <c r="V12">
-        <v>4181.25</v>
-      </c>
-      <c r="W12">
-        <v>3538.25</v>
-      </c>
-      <c r="X12">
-        <v>1943.5</v>
-      </c>
-      <c r="Y12">
-        <v>5091.75</v>
-      </c>
-      <c r="Z12">
-        <v>6058.5</v>
-      </c>
-      <c r="AA12">
-        <v>4630</v>
-      </c>
-      <c r="AB12">
-        <v>359.75</v>
-      </c>
-      <c r="AC12">
         <v>2731.75</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C13">
         <v>887</v>
       </c>
       <c r="D13">
-        <v>708</v>
+        <v>570.25</v>
       </c>
       <c r="E13">
-        <v>570.25</v>
+        <v>2208.25</v>
       </c>
       <c r="F13">
-        <v>2208.25</v>
+        <v>334</v>
       </c>
       <c r="G13">
-        <v>334</v>
+        <v>596.25</v>
       </c>
       <c r="H13">
-        <v>885</v>
+        <v>155.75</v>
       </c>
       <c r="I13">
-        <v>917.25</v>
+        <v>280.25</v>
       </c>
       <c r="J13">
-        <v>596.25</v>
+        <v>582.5</v>
       </c>
       <c r="K13">
-        <v>155.75</v>
+        <v>505</v>
       </c>
       <c r="L13">
-        <v>280.25</v>
+        <v>396.5</v>
       </c>
       <c r="M13">
-        <v>586.75</v>
+        <v>129.25</v>
       </c>
       <c r="N13">
-        <v>582.5</v>
+        <v>539</v>
       </c>
       <c r="O13">
-        <v>505</v>
+        <v>1345.25</v>
       </c>
       <c r="P13">
-        <v>396.5</v>
+        <v>1402.25</v>
       </c>
       <c r="Q13">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="R13">
-        <v>581.25</v>
+        <v>1484</v>
       </c>
       <c r="S13">
-        <v>129.25</v>
+        <v>319.5</v>
       </c>
       <c r="T13">
-        <v>539</v>
-      </c>
-      <c r="U13">
-        <v>1345.25</v>
-      </c>
-      <c r="V13">
-        <v>1480.75</v>
-      </c>
-      <c r="W13">
-        <v>1402.25</v>
-      </c>
-      <c r="X13">
-        <v>625</v>
-      </c>
-      <c r="Y13">
-        <v>1484</v>
-      </c>
-      <c r="Z13">
-        <v>2078.5</v>
-      </c>
-      <c r="AA13">
-        <v>1617</v>
-      </c>
-      <c r="AB13">
-        <v>319.5</v>
-      </c>
-      <c r="AC13">
         <v>1304</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C14">
         <v>522</v>
       </c>
       <c r="D14">
-        <v>316.25</v>
+        <v>241.5</v>
       </c>
       <c r="E14">
-        <v>241.5</v>
+        <v>2020.5</v>
       </c>
       <c r="F14">
-        <v>2020.5</v>
+        <v>211.5</v>
       </c>
       <c r="G14">
-        <v>211.5</v>
+        <v>264.75</v>
       </c>
       <c r="H14">
-        <v>458.5</v>
+        <v>146.5</v>
       </c>
       <c r="I14">
-        <v>671.25</v>
+        <v>160.5</v>
       </c>
       <c r="J14">
-        <v>264.75</v>
+        <v>341.5</v>
       </c>
       <c r="K14">
-        <v>146.5</v>
+        <v>426.25</v>
       </c>
       <c r="L14">
-        <v>160.5</v>
+        <v>297.5</v>
       </c>
       <c r="M14">
-        <v>393</v>
+        <v>128</v>
       </c>
       <c r="N14">
-        <v>341.5</v>
+        <v>333</v>
       </c>
       <c r="O14">
-        <v>426.25</v>
+        <v>2058.75</v>
       </c>
       <c r="P14">
-        <v>297.5</v>
+        <v>3082</v>
       </c>
       <c r="Q14">
-        <v>455</v>
+        <v>621.25</v>
       </c>
       <c r="R14">
-        <v>396.75</v>
+        <v>2956.5</v>
       </c>
       <c r="S14">
-        <v>128</v>
+        <v>269.25</v>
       </c>
       <c r="T14">
-        <v>333</v>
-      </c>
-      <c r="U14">
-        <v>2058.75</v>
-      </c>
-      <c r="V14">
-        <v>3368</v>
-      </c>
-      <c r="W14">
-        <v>3082</v>
-      </c>
-      <c r="X14">
-        <v>621.25</v>
-      </c>
-      <c r="Y14">
-        <v>2956.5</v>
-      </c>
-      <c r="Z14">
-        <v>5265.25</v>
-      </c>
-      <c r="AA14">
-        <v>3569.5</v>
-      </c>
-      <c r="AB14">
-        <v>269.25</v>
-      </c>
-      <c r="AC14">
         <v>2123.5</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C15">
         <v>459</v>
       </c>
       <c r="D15">
-        <v>292.5</v>
+        <v>259.5</v>
       </c>
       <c r="E15">
-        <v>259.5</v>
+        <v>2500</v>
       </c>
       <c r="F15">
-        <v>2500</v>
+        <v>188</v>
       </c>
       <c r="G15">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="H15">
-        <v>362.5</v>
+        <v>142.25</v>
       </c>
       <c r="I15">
-        <v>451.5</v>
+        <v>182</v>
       </c>
       <c r="J15">
-        <v>272</v>
+        <v>302.5</v>
       </c>
       <c r="K15">
-        <v>142.25</v>
+        <v>452.75</v>
       </c>
       <c r="L15">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="M15">
-        <v>304.5</v>
+        <v>117.75</v>
       </c>
       <c r="N15">
-        <v>302.5</v>
+        <v>293.75</v>
       </c>
       <c r="O15">
-        <v>452.75</v>
+        <v>2104.5</v>
       </c>
       <c r="P15">
-        <v>225</v>
+        <v>1240.25</v>
       </c>
       <c r="Q15">
-        <v>358</v>
+        <v>1117.5</v>
       </c>
       <c r="R15">
-        <v>304.5</v>
+        <v>1754</v>
       </c>
       <c r="S15">
-        <v>117.75</v>
+        <v>182.25</v>
       </c>
       <c r="T15">
-        <v>293.75</v>
-      </c>
-      <c r="U15">
-        <v>2104.5</v>
-      </c>
-      <c r="V15">
-        <v>1294</v>
-      </c>
-      <c r="W15">
-        <v>1240.25</v>
-      </c>
-      <c r="X15">
-        <v>1117.5</v>
-      </c>
-      <c r="Y15">
-        <v>1754</v>
-      </c>
-      <c r="Z15">
-        <v>1709.25</v>
-      </c>
-      <c r="AA15">
-        <v>1195.5</v>
-      </c>
-      <c r="AB15">
-        <v>182.25</v>
-      </c>
-      <c r="AC15">
         <v>995.5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C16">
         <v>546</v>
       </c>
       <c r="D16">
-        <v>291</v>
+        <v>257.5</v>
       </c>
       <c r="E16">
-        <v>257.5</v>
+        <v>259</v>
       </c>
       <c r="F16">
-        <v>259</v>
+        <v>202.25</v>
       </c>
       <c r="G16">
-        <v>202.25</v>
+        <v>363.25</v>
       </c>
       <c r="H16">
-        <v>358.75</v>
+        <v>152.75</v>
       </c>
       <c r="I16">
-        <v>476.25</v>
+        <v>195</v>
       </c>
       <c r="J16">
-        <v>363.25</v>
+        <v>321</v>
       </c>
       <c r="K16">
-        <v>152.75</v>
+        <v>207.25</v>
       </c>
       <c r="L16">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="M16">
-        <v>328.5</v>
+        <v>195.25</v>
       </c>
       <c r="N16">
-        <v>321</v>
+        <v>341.75</v>
       </c>
       <c r="O16">
-        <v>207.25</v>
+        <v>786.5</v>
       </c>
       <c r="P16">
-        <v>251</v>
+        <v>1717.75</v>
       </c>
       <c r="Q16">
-        <v>423.75</v>
+        <v>790.5</v>
       </c>
       <c r="R16">
-        <v>371</v>
+        <v>2683.5</v>
       </c>
       <c r="S16">
-        <v>195.25</v>
+        <v>302</v>
       </c>
       <c r="T16">
-        <v>341.75</v>
-      </c>
-      <c r="U16">
-        <v>786.5</v>
-      </c>
-      <c r="V16">
-        <v>1697.75</v>
-      </c>
-      <c r="W16">
-        <v>1717.75</v>
-      </c>
-      <c r="X16">
-        <v>790.5</v>
-      </c>
-      <c r="Y16">
-        <v>2683.5</v>
-      </c>
-      <c r="Z16">
-        <v>2432.5</v>
-      </c>
-      <c r="AA16">
-        <v>1698.25</v>
-      </c>
-      <c r="AB16">
-        <v>302</v>
-      </c>
-      <c r="AC16">
         <v>1087</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C17">
         <v>312.5</v>
       </c>
       <c r="D17">
-        <v>208</v>
+        <v>180.5</v>
       </c>
       <c r="E17">
-        <v>180.5</v>
+        <v>378.5</v>
       </c>
       <c r="F17">
-        <v>378.5</v>
+        <v>161.5</v>
       </c>
       <c r="G17">
-        <v>161.5</v>
+        <v>205</v>
       </c>
       <c r="H17">
-        <v>292.5</v>
+        <v>151.5</v>
       </c>
       <c r="I17">
-        <v>309.25</v>
+        <v>154</v>
       </c>
       <c r="J17">
-        <v>205</v>
+        <v>252.75</v>
       </c>
       <c r="K17">
-        <v>151.5</v>
+        <v>212.25</v>
       </c>
       <c r="L17">
-        <v>154</v>
+        <v>204.5</v>
       </c>
       <c r="M17">
-        <v>291.5</v>
+        <v>125</v>
       </c>
       <c r="N17">
-        <v>252.75</v>
+        <v>265.25</v>
       </c>
       <c r="O17">
-        <v>212.25</v>
+        <v>740.75</v>
       </c>
       <c r="P17">
-        <v>204.5</v>
+        <v>1409.5</v>
       </c>
       <c r="Q17">
-        <v>352.5</v>
+        <v>586.5</v>
       </c>
       <c r="R17">
-        <v>283.5</v>
+        <v>1849.5</v>
       </c>
       <c r="S17">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="T17">
-        <v>265.25</v>
-      </c>
-      <c r="U17">
-        <v>740.75</v>
-      </c>
-      <c r="V17">
-        <v>1473.5</v>
-      </c>
-      <c r="W17">
-        <v>1409.5</v>
-      </c>
-      <c r="X17">
-        <v>586.5</v>
-      </c>
-      <c r="Y17">
-        <v>1849.5</v>
-      </c>
-      <c r="Z17">
-        <v>2136.75</v>
-      </c>
-      <c r="AA17">
-        <v>1575.5</v>
-      </c>
-      <c r="AB17">
-        <v>245</v>
-      </c>
-      <c r="AC17">
         <v>1058.75</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C18">
         <v>981.5</v>
       </c>
       <c r="D18">
-        <v>552.5</v>
+        <v>451</v>
       </c>
       <c r="E18">
-        <v>451</v>
+        <v>359.5</v>
       </c>
       <c r="F18">
-        <v>359.5</v>
+        <v>293</v>
       </c>
       <c r="G18">
-        <v>293</v>
+        <v>418.25</v>
       </c>
       <c r="H18">
-        <v>770.75</v>
+        <v>156.5</v>
       </c>
       <c r="I18">
-        <v>973</v>
+        <v>209.75</v>
       </c>
       <c r="J18">
-        <v>418.25</v>
+        <v>455.5</v>
       </c>
       <c r="K18">
-        <v>156.5</v>
+        <v>231.75</v>
       </c>
       <c r="L18">
-        <v>209.75</v>
+        <v>328.5</v>
       </c>
       <c r="M18">
-        <v>472.5</v>
+        <v>129.5</v>
       </c>
       <c r="N18">
-        <v>455.5</v>
+        <v>376.5</v>
       </c>
       <c r="O18">
-        <v>231.75</v>
+        <v>673.5</v>
       </c>
       <c r="P18">
-        <v>328.5</v>
+        <v>1709.5</v>
       </c>
       <c r="Q18">
-        <v>529.25</v>
+        <v>1044.75</v>
       </c>
       <c r="R18">
-        <v>476.5</v>
+        <v>3626.25</v>
       </c>
       <c r="S18">
-        <v>129.5</v>
+        <v>265</v>
       </c>
       <c r="T18">
-        <v>376.5</v>
-      </c>
-      <c r="U18">
-        <v>673.5</v>
-      </c>
-      <c r="V18">
-        <v>2064.5</v>
-      </c>
-      <c r="W18">
-        <v>1709.5</v>
-      </c>
-      <c r="X18">
-        <v>1044.75</v>
-      </c>
-      <c r="Y18">
-        <v>3626.25</v>
-      </c>
-      <c r="Z18">
-        <v>2800.5</v>
-      </c>
-      <c r="AA18">
-        <v>2149.75</v>
-      </c>
-      <c r="AB18">
-        <v>265</v>
-      </c>
-      <c r="AC18">
         <v>1504.75</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C19">
         <v>813</v>
       </c>
       <c r="D19">
-        <v>542.5</v>
+        <v>412.5</v>
       </c>
       <c r="E19">
-        <v>412.5</v>
+        <v>884</v>
       </c>
       <c r="F19">
-        <v>884</v>
+        <v>305.25</v>
       </c>
       <c r="G19">
-        <v>305.25</v>
+        <v>397.5</v>
       </c>
       <c r="H19">
-        <v>663.5</v>
+        <v>154</v>
       </c>
       <c r="I19">
-        <v>789.5</v>
+        <v>214.25</v>
       </c>
       <c r="J19">
-        <v>397.5</v>
+        <v>517.25</v>
       </c>
       <c r="K19">
-        <v>154</v>
+        <v>254.75</v>
       </c>
       <c r="L19">
-        <v>214.25</v>
+        <v>384.5</v>
       </c>
       <c r="M19">
-        <v>546.75</v>
+        <v>129.25</v>
       </c>
       <c r="N19">
-        <v>517.25</v>
+        <v>441.75</v>
       </c>
       <c r="O19">
-        <v>254.75</v>
+        <v>3561.75</v>
       </c>
       <c r="P19">
-        <v>384.5</v>
+        <v>3041.75</v>
       </c>
       <c r="Q19">
-        <v>693.5</v>
+        <v>1334.25</v>
       </c>
       <c r="R19">
-        <v>592</v>
+        <v>3448.75</v>
       </c>
       <c r="S19">
-        <v>129.25</v>
+        <v>217.75</v>
       </c>
       <c r="T19">
-        <v>441.75</v>
-      </c>
-      <c r="U19">
-        <v>3561.75</v>
-      </c>
-      <c r="V19">
-        <v>3214</v>
-      </c>
-      <c r="W19">
-        <v>3041.75</v>
-      </c>
-      <c r="X19">
-        <v>1334.25</v>
-      </c>
-      <c r="Y19">
-        <v>3448.75</v>
-      </c>
-      <c r="Z19">
-        <v>4755.5</v>
-      </c>
-      <c r="AA19">
-        <v>4437.75</v>
-      </c>
-      <c r="AB19">
-        <v>217.75</v>
-      </c>
-      <c r="AC19">
         <v>2502.25</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C20">
         <v>410.75</v>
       </c>
       <c r="D20">
-        <v>266</v>
+        <v>215.25</v>
       </c>
       <c r="E20">
-        <v>215.25</v>
+        <v>450</v>
       </c>
       <c r="F20">
-        <v>450</v>
+        <v>163.75</v>
       </c>
       <c r="G20">
-        <v>163.75</v>
+        <v>216.75</v>
       </c>
       <c r="H20">
-        <v>384</v>
+        <v>134.5</v>
       </c>
       <c r="I20">
-        <v>566.5</v>
+        <v>143.5</v>
       </c>
       <c r="J20">
-        <v>216.75</v>
+        <v>200.75</v>
       </c>
       <c r="K20">
-        <v>134.5</v>
+        <v>272.25</v>
       </c>
       <c r="L20">
-        <v>143.5</v>
+        <v>162</v>
       </c>
       <c r="M20">
-        <v>218.25</v>
+        <v>124</v>
       </c>
       <c r="N20">
-        <v>200.75</v>
+        <v>217</v>
       </c>
       <c r="O20">
-        <v>272.25</v>
+        <v>990.25</v>
       </c>
       <c r="P20">
-        <v>162</v>
+        <v>1928</v>
       </c>
       <c r="Q20">
-        <v>278.5</v>
+        <v>3703.25</v>
       </c>
       <c r="R20">
-        <v>249.5</v>
+        <v>3101</v>
       </c>
       <c r="S20">
-        <v>124</v>
+        <v>338.25</v>
       </c>
       <c r="T20">
-        <v>217</v>
-      </c>
-      <c r="U20">
-        <v>990.25</v>
-      </c>
-      <c r="V20">
-        <v>2022</v>
-      </c>
-      <c r="W20">
-        <v>1928</v>
-      </c>
-      <c r="X20">
-        <v>3703.25</v>
-      </c>
-      <c r="Y20">
-        <v>3101</v>
-      </c>
-      <c r="Z20">
-        <v>2728</v>
-      </c>
-      <c r="AA20">
-        <v>2287</v>
-      </c>
-      <c r="AB20">
-        <v>338.25</v>
-      </c>
-      <c r="AC20">
         <v>1605.25</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C21">
         <v>725.5</v>
       </c>
       <c r="D21">
-        <v>426.5</v>
+        <v>350</v>
       </c>
       <c r="E21">
-        <v>350</v>
+        <v>4622.5</v>
       </c>
       <c r="F21">
-        <v>4622.5</v>
+        <v>253.75</v>
       </c>
       <c r="G21">
-        <v>253.75</v>
+        <v>366.5</v>
       </c>
       <c r="H21">
-        <v>589</v>
+        <v>151.5</v>
       </c>
       <c r="I21">
-        <v>825.25</v>
+        <v>211.5</v>
       </c>
       <c r="J21">
-        <v>366.5</v>
+        <v>421.25</v>
       </c>
       <c r="K21">
-        <v>151.5</v>
+        <v>520.5</v>
       </c>
       <c r="L21">
-        <v>211.5</v>
+        <v>323.5</v>
       </c>
       <c r="M21">
-        <v>470.5</v>
+        <v>123</v>
       </c>
       <c r="N21">
-        <v>421.25</v>
+        <v>391.25</v>
       </c>
       <c r="O21">
-        <v>520.5</v>
+        <v>2624.5</v>
       </c>
       <c r="P21">
-        <v>323.5</v>
+        <v>2492.75</v>
       </c>
       <c r="Q21">
-        <v>575.25</v>
+        <v>2949.5</v>
       </c>
       <c r="R21">
-        <v>522</v>
+        <v>4408.5</v>
       </c>
       <c r="S21">
-        <v>123</v>
+        <v>230.5</v>
       </c>
       <c r="T21">
-        <v>391.25</v>
-      </c>
-      <c r="U21">
-        <v>2624.5</v>
-      </c>
-      <c r="V21">
-        <v>2802.25</v>
-      </c>
-      <c r="W21">
-        <v>2492.75</v>
-      </c>
-      <c r="X21">
-        <v>2949.5</v>
-      </c>
-      <c r="Y21">
-        <v>4408.5</v>
-      </c>
-      <c r="Z21">
-        <v>3573.5</v>
-      </c>
-      <c r="AA21">
-        <v>2776.25</v>
-      </c>
-      <c r="AB21">
-        <v>230.5</v>
-      </c>
-      <c r="AC21">
         <v>2138.25</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" t="s">
         <v>314</v>
-      </c>
-      <c r="B22" t="s">
-        <v>323</v>
       </c>
       <c r="C22">
         <v>971</v>
       </c>
       <c r="D22">
-        <v>539.5</v>
+        <v>421.25</v>
       </c>
       <c r="E22">
-        <v>421.25</v>
+        <v>1425</v>
       </c>
       <c r="F22">
-        <v>1425</v>
+        <v>286.5</v>
       </c>
       <c r="G22">
-        <v>286.5</v>
+        <v>379.75</v>
       </c>
       <c r="H22">
-        <v>786.25</v>
+        <v>155.5</v>
       </c>
       <c r="I22">
-        <v>1228.5</v>
+        <v>152.75</v>
       </c>
       <c r="J22">
-        <v>379.75</v>
+        <v>250.5</v>
       </c>
       <c r="K22">
-        <v>155.5</v>
+        <v>362.5</v>
       </c>
       <c r="L22">
-        <v>152.75</v>
+        <v>208.5</v>
       </c>
       <c r="M22">
-        <v>285.5</v>
+        <v>124.25</v>
       </c>
       <c r="N22">
-        <v>250.5</v>
+        <v>268</v>
       </c>
       <c r="O22">
-        <v>362.5</v>
+        <v>2914.25</v>
       </c>
       <c r="P22">
-        <v>208.5</v>
+        <v>2049</v>
       </c>
       <c r="Q22">
-        <v>345.5</v>
+        <v>919.25</v>
       </c>
       <c r="R22">
-        <v>335.5</v>
+        <v>2323</v>
       </c>
       <c r="S22">
-        <v>124.25</v>
+        <v>255</v>
       </c>
       <c r="T22">
-        <v>268</v>
-      </c>
-      <c r="U22">
-        <v>2914.25</v>
-      </c>
-      <c r="V22">
-        <v>2424.5</v>
-      </c>
-      <c r="W22">
-        <v>2049</v>
-      </c>
-      <c r="X22">
-        <v>919.25</v>
-      </c>
-      <c r="Y22">
-        <v>2323</v>
-      </c>
-      <c r="Z22">
-        <v>3036.25</v>
-      </c>
-      <c r="AA22">
-        <v>2263.25</v>
-      </c>
-      <c r="AB22">
-        <v>255</v>
-      </c>
-      <c r="AC22">
         <v>1629.5</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C23">
         <v>202.5</v>
       </c>
       <c r="D23">
-        <v>154.25</v>
+        <v>128.5</v>
       </c>
       <c r="E23">
-        <v>128.5</v>
+        <v>7234</v>
       </c>
       <c r="F23">
-        <v>7234</v>
+        <v>237</v>
       </c>
       <c r="G23">
-        <v>237</v>
+        <v>200.75</v>
       </c>
       <c r="H23">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="I23">
-        <v>191</v>
+        <v>119.5</v>
       </c>
       <c r="J23">
-        <v>200.75</v>
+        <v>99.25</v>
       </c>
       <c r="K23">
-        <v>143</v>
+        <v>681.25</v>
       </c>
       <c r="L23">
-        <v>119.5</v>
+        <v>116.5</v>
       </c>
       <c r="M23">
-        <v>120.5</v>
+        <v>119.25</v>
       </c>
       <c r="N23">
-        <v>99.25</v>
+        <v>136</v>
       </c>
       <c r="O23">
-        <v>681.25</v>
+        <v>5942.5</v>
       </c>
       <c r="P23">
-        <v>116.5</v>
+        <v>4193.5</v>
       </c>
       <c r="Q23">
-        <v>150</v>
+        <v>3161.5</v>
       </c>
       <c r="R23">
-        <v>130</v>
+        <v>4731</v>
       </c>
       <c r="S23">
-        <v>119.25</v>
+        <v>409.5</v>
       </c>
       <c r="T23">
-        <v>136</v>
-      </c>
-      <c r="U23">
-        <v>5942.5</v>
-      </c>
-      <c r="V23">
-        <v>4308.5</v>
-      </c>
-      <c r="W23">
-        <v>4193.5</v>
-      </c>
-      <c r="X23">
-        <v>3161.5</v>
-      </c>
-      <c r="Y23">
-        <v>4731</v>
-      </c>
-      <c r="Z23">
-        <v>5732.5</v>
-      </c>
-      <c r="AA23">
-        <v>5083.25</v>
-      </c>
-      <c r="AB23">
-        <v>409.5</v>
-      </c>
-      <c r="AC23">
         <v>3225</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C24">
         <v>591.25</v>
       </c>
       <c r="D24">
-        <v>419.75</v>
+        <v>369</v>
       </c>
       <c r="E24">
-        <v>369</v>
+        <v>19794.5</v>
       </c>
       <c r="F24">
-        <v>19794.5</v>
+        <v>367.25</v>
       </c>
       <c r="G24">
-        <v>367.25</v>
+        <v>504.5</v>
       </c>
       <c r="H24">
-        <v>533.25</v>
+        <v>142.25</v>
       </c>
       <c r="I24">
-        <v>6513.5</v>
+        <v>293.5</v>
       </c>
       <c r="J24">
-        <v>504.5</v>
+        <v>755.5</v>
       </c>
       <c r="K24">
-        <v>142.25</v>
+        <v>1495.5</v>
       </c>
       <c r="L24">
-        <v>293.5</v>
+        <v>526</v>
       </c>
       <c r="M24">
-        <v>823</v>
+        <v>129.75</v>
       </c>
       <c r="N24">
-        <v>755.5</v>
+        <v>669.75</v>
       </c>
       <c r="O24">
-        <v>1495.5</v>
+        <v>3794.25</v>
       </c>
       <c r="P24">
-        <v>526</v>
+        <v>3996.5</v>
       </c>
       <c r="Q24">
-        <v>948.25</v>
+        <v>2192</v>
       </c>
       <c r="R24">
-        <v>1026.5</v>
+        <v>4315</v>
       </c>
       <c r="S24">
-        <v>129.75</v>
+        <v>258.25</v>
       </c>
       <c r="T24">
-        <v>669.75</v>
-      </c>
-      <c r="U24">
-        <v>3794.25</v>
-      </c>
-      <c r="V24">
-        <v>4322.75</v>
-      </c>
-      <c r="W24">
-        <v>3996.5</v>
-      </c>
-      <c r="X24">
-        <v>2192</v>
-      </c>
-      <c r="Y24">
-        <v>4315</v>
-      </c>
-      <c r="Z24">
-        <v>5783</v>
-      </c>
-      <c r="AA24">
-        <v>5505.5</v>
-      </c>
-      <c r="AB24">
-        <v>258.25</v>
-      </c>
-      <c r="AC24">
         <v>3093.75</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C25">
         <v>12791.25</v>
       </c>
       <c r="D25">
-        <v>509.5</v>
+        <v>455.5</v>
       </c>
       <c r="E25">
-        <v>455.5</v>
+        <v>4280.5</v>
       </c>
       <c r="F25">
-        <v>4280.5</v>
+        <v>299.5</v>
       </c>
       <c r="G25">
-        <v>299.5</v>
+        <v>552</v>
       </c>
       <c r="H25">
-        <v>669.75</v>
+        <v>160</v>
       </c>
       <c r="I25">
-        <v>841.25</v>
+        <v>1732.25</v>
       </c>
       <c r="J25">
-        <v>552</v>
+        <v>189.25</v>
       </c>
       <c r="K25">
-        <v>160</v>
+        <v>472.25</v>
       </c>
       <c r="L25">
-        <v>1732.25</v>
+        <v>161.75</v>
       </c>
       <c r="M25">
-        <v>201.75</v>
+        <v>124</v>
       </c>
       <c r="N25">
-        <v>189.25</v>
+        <v>204</v>
       </c>
       <c r="O25">
-        <v>472.25</v>
+        <v>1335.5</v>
       </c>
       <c r="P25">
-        <v>161.75</v>
+        <v>2195.5</v>
       </c>
       <c r="Q25">
-        <v>267.75</v>
+        <v>3993</v>
       </c>
       <c r="R25">
-        <v>231</v>
+        <v>3792</v>
       </c>
       <c r="S25">
-        <v>124</v>
+        <v>363.5</v>
       </c>
       <c r="T25">
-        <v>204</v>
-      </c>
-      <c r="U25">
-        <v>1335.5</v>
-      </c>
-      <c r="V25">
-        <v>2249</v>
-      </c>
-      <c r="W25">
-        <v>2195.5</v>
-      </c>
-      <c r="X25">
-        <v>3993</v>
-      </c>
-      <c r="Y25">
-        <v>3792</v>
-      </c>
-      <c r="Z25">
-        <v>2899</v>
-      </c>
-      <c r="AA25">
-        <v>2481.25</v>
-      </c>
-      <c r="AB25">
-        <v>363.5</v>
-      </c>
-      <c r="AC25">
         <v>1949</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C26">
         <v>1116</v>
       </c>
       <c r="D26">
-        <v>508</v>
+        <v>718.5</v>
       </c>
       <c r="E26">
-        <v>718.5</v>
+        <v>31280.5</v>
       </c>
       <c r="F26">
-        <v>31280.5</v>
+        <v>301.5</v>
       </c>
       <c r="G26">
-        <v>301.5</v>
+        <v>442.5</v>
       </c>
       <c r="H26">
-        <v>683.5</v>
+        <v>136.5</v>
       </c>
       <c r="I26">
-        <v>1955</v>
+        <v>418.25</v>
       </c>
       <c r="J26">
-        <v>442.5</v>
+        <v>698.75</v>
       </c>
       <c r="K26">
-        <v>136.5</v>
+        <v>1681</v>
       </c>
       <c r="L26">
-        <v>418.25</v>
+        <v>458.25</v>
       </c>
       <c r="M26">
-        <v>717.5</v>
+        <v>127</v>
       </c>
       <c r="N26">
-        <v>698.75</v>
+        <v>579.5</v>
       </c>
       <c r="O26">
-        <v>1681</v>
+        <v>1979.25</v>
       </c>
       <c r="P26">
-        <v>458.25</v>
+        <v>2097</v>
       </c>
       <c r="Q26">
-        <v>817.5</v>
+        <v>2543.25</v>
       </c>
       <c r="R26">
-        <v>878.5</v>
+        <v>4015</v>
       </c>
       <c r="S26">
-        <v>127</v>
+        <v>230.25</v>
       </c>
       <c r="T26">
-        <v>579.5</v>
-      </c>
-      <c r="U26">
-        <v>1979.25</v>
-      </c>
-      <c r="V26">
-        <v>2367.5</v>
-      </c>
-      <c r="W26">
-        <v>2097</v>
-      </c>
-      <c r="X26">
-        <v>2543.25</v>
-      </c>
-      <c r="Y26">
-        <v>4015</v>
-      </c>
-      <c r="Z26">
-        <v>2916.5</v>
-      </c>
-      <c r="AA26">
-        <v>2298</v>
-      </c>
-      <c r="AB26">
-        <v>230.25</v>
-      </c>
-      <c r="AC26">
         <v>1764.25</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C27">
         <v>1855</v>
       </c>
       <c r="D27">
-        <v>1175.25</v>
+        <v>1023</v>
       </c>
       <c r="E27">
-        <v>1023</v>
+        <v>11455</v>
       </c>
       <c r="F27">
-        <v>11455</v>
+        <v>638</v>
       </c>
       <c r="G27">
-        <v>638</v>
+        <v>998.25</v>
       </c>
       <c r="H27">
-        <v>1288.25</v>
+        <v>155.5</v>
       </c>
       <c r="I27">
-        <v>1872.75</v>
+        <v>214</v>
       </c>
       <c r="J27">
-        <v>998.25</v>
+        <v>328.5</v>
       </c>
       <c r="K27">
-        <v>155.5</v>
+        <v>1207.5</v>
       </c>
       <c r="L27">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="M27">
-        <v>357.75</v>
+        <v>126</v>
       </c>
       <c r="N27">
-        <v>328.5</v>
+        <v>332</v>
       </c>
       <c r="O27">
-        <v>1207.5</v>
+        <v>2376</v>
       </c>
       <c r="P27">
-        <v>245</v>
+        <v>2279</v>
       </c>
       <c r="Q27">
-        <v>402.75</v>
+        <v>999</v>
       </c>
       <c r="R27">
-        <v>413.5</v>
+        <v>2411.5</v>
       </c>
       <c r="S27">
-        <v>126</v>
+        <v>243.5</v>
       </c>
       <c r="T27">
-        <v>332</v>
-      </c>
-      <c r="U27">
-        <v>2376</v>
-      </c>
-      <c r="V27">
-        <v>2437.75</v>
-      </c>
-      <c r="W27">
-        <v>2279</v>
-      </c>
-      <c r="X27">
-        <v>999</v>
-      </c>
-      <c r="Y27">
-        <v>2411.5</v>
-      </c>
-      <c r="Z27">
-        <v>2990.75</v>
-      </c>
-      <c r="AA27">
-        <v>2330.25</v>
-      </c>
-      <c r="AB27">
-        <v>243.5</v>
-      </c>
-      <c r="AC27">
         <v>1840</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C28">
         <v>1626.75</v>
       </c>
       <c r="D28">
-        <v>140</v>
+        <v>126.75</v>
       </c>
       <c r="E28">
-        <v>126.75</v>
+        <v>9688.5</v>
       </c>
       <c r="F28">
-        <v>9688.5</v>
+        <v>282</v>
       </c>
       <c r="G28">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="H28">
-        <v>193.75</v>
+        <v>144.25</v>
       </c>
       <c r="I28">
-        <v>191.5</v>
+        <v>485.5</v>
       </c>
       <c r="J28">
-        <v>239</v>
+        <v>119.5</v>
       </c>
       <c r="K28">
-        <v>144.25</v>
+        <v>754.75</v>
       </c>
       <c r="L28">
-        <v>485.5</v>
+        <v>128.5</v>
       </c>
       <c r="M28">
-        <v>121.75</v>
+        <v>120.75</v>
       </c>
       <c r="N28">
-        <v>119.5</v>
+        <v>152.75</v>
       </c>
       <c r="O28">
-        <v>754.75</v>
+        <v>4468</v>
       </c>
       <c r="P28">
-        <v>128.5</v>
+        <v>3113</v>
       </c>
       <c r="Q28">
-        <v>169.25</v>
+        <v>1538</v>
       </c>
       <c r="R28">
-        <v>148</v>
+        <v>3177.5</v>
       </c>
       <c r="S28">
-        <v>120.75</v>
+        <v>291.5</v>
       </c>
       <c r="T28">
-        <v>152.75</v>
-      </c>
-      <c r="U28">
-        <v>4468</v>
-      </c>
-      <c r="V28">
-        <v>3187.5</v>
-      </c>
-      <c r="W28">
-        <v>3113</v>
-      </c>
-      <c r="X28">
-        <v>1538</v>
-      </c>
-      <c r="Y28">
-        <v>3177.5</v>
-      </c>
-      <c r="Z28">
-        <v>4134.75</v>
-      </c>
-      <c r="AA28">
-        <v>3346.25</v>
-      </c>
-      <c r="AB28">
-        <v>291.5</v>
-      </c>
-      <c r="AC28">
         <v>2328.25</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C29">
         <v>379</v>
       </c>
       <c r="D29">
-        <v>230.25</v>
+        <v>165.5</v>
       </c>
       <c r="E29">
-        <v>165.5</v>
+        <v>373.75</v>
       </c>
       <c r="F29">
-        <v>373.75</v>
+        <v>204</v>
       </c>
       <c r="G29">
-        <v>204</v>
+        <v>206.5</v>
       </c>
       <c r="H29">
-        <v>301</v>
+        <v>182</v>
       </c>
       <c r="I29">
-        <v>459.75</v>
+        <v>195</v>
       </c>
       <c r="J29">
-        <v>206.5</v>
+        <v>482.5</v>
       </c>
       <c r="K29">
-        <v>182</v>
+        <v>248.5</v>
       </c>
       <c r="L29">
-        <v>195</v>
+        <v>473</v>
       </c>
       <c r="M29">
-        <v>510.5</v>
+        <v>126.75</v>
       </c>
       <c r="N29">
-        <v>482.5</v>
+        <v>430.5</v>
       </c>
       <c r="O29">
-        <v>248.5</v>
+        <v>2552</v>
       </c>
       <c r="P29">
-        <v>473</v>
+        <v>2557</v>
       </c>
       <c r="Q29">
-        <v>645</v>
+        <v>1234.25</v>
       </c>
       <c r="R29">
-        <v>544</v>
+        <v>4941.75</v>
       </c>
       <c r="S29">
-        <v>126.75</v>
+        <v>430.5</v>
       </c>
       <c r="T29">
-        <v>430.5</v>
-      </c>
-      <c r="U29">
-        <v>2552</v>
-      </c>
-      <c r="V29">
-        <v>3014</v>
-      </c>
-      <c r="W29">
-        <v>2557</v>
-      </c>
-      <c r="X29">
-        <v>1234.25</v>
-      </c>
-      <c r="Y29">
-        <v>4941.75</v>
-      </c>
-      <c r="Z29">
-        <v>4688</v>
-      </c>
-      <c r="AA29">
-        <v>4591</v>
-      </c>
-      <c r="AB29">
-        <v>430.5</v>
-      </c>
-      <c r="AC29">
         <v>2004.5</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C30">
         <v>628</v>
       </c>
       <c r="D30">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="E30">
-        <v>311</v>
+        <v>265.5</v>
       </c>
       <c r="F30">
-        <v>265.5</v>
+        <v>202.75</v>
       </c>
       <c r="G30">
-        <v>202.75</v>
+        <v>348.25</v>
       </c>
       <c r="H30">
-        <v>473</v>
+        <v>141</v>
       </c>
       <c r="I30">
-        <v>580.5</v>
+        <v>205.5</v>
       </c>
       <c r="J30">
-        <v>348.25</v>
+        <v>429.75</v>
       </c>
       <c r="K30">
-        <v>141</v>
+        <v>212.25</v>
       </c>
       <c r="L30">
-        <v>205.5</v>
+        <v>299.25</v>
       </c>
       <c r="M30">
-        <v>471.5</v>
+        <v>131.75</v>
       </c>
       <c r="N30">
-        <v>429.75</v>
+        <v>409.75</v>
       </c>
       <c r="O30">
-        <v>212.25</v>
+        <v>552.5</v>
       </c>
       <c r="P30">
-        <v>299.25</v>
+        <v>1449.5</v>
       </c>
       <c r="Q30">
-        <v>571.5</v>
+        <v>452.25</v>
       </c>
       <c r="R30">
-        <v>458.75</v>
+        <v>1735.75</v>
       </c>
       <c r="S30">
-        <v>131.75</v>
+        <v>175</v>
       </c>
       <c r="T30">
-        <v>409.75</v>
-      </c>
-      <c r="U30">
-        <v>552.5</v>
-      </c>
-      <c r="V30">
-        <v>1597</v>
-      </c>
-      <c r="W30">
-        <v>1449.5</v>
-      </c>
-      <c r="X30">
-        <v>452.25</v>
-      </c>
-      <c r="Y30">
-        <v>1735.75</v>
-      </c>
-      <c r="Z30">
-        <v>2195</v>
-      </c>
-      <c r="AA30">
-        <v>1547</v>
-      </c>
-      <c r="AB30">
-        <v>175</v>
-      </c>
-      <c r="AC30">
         <v>1041.25</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C31">
         <v>247.5</v>
       </c>
       <c r="D31">
-        <v>173.5</v>
+        <v>143</v>
       </c>
       <c r="E31">
-        <v>143</v>
+        <v>240.5</v>
       </c>
       <c r="F31">
-        <v>240.5</v>
+        <v>136.75</v>
       </c>
       <c r="G31">
-        <v>136.75</v>
+        <v>167.25</v>
       </c>
       <c r="H31">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="I31">
-        <v>244.75</v>
+        <v>169.5</v>
       </c>
       <c r="J31">
-        <v>167.25</v>
+        <v>270.25</v>
       </c>
       <c r="K31">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="L31">
-        <v>169.5</v>
+        <v>238</v>
       </c>
       <c r="M31">
-        <v>289</v>
+        <v>120</v>
       </c>
       <c r="N31">
-        <v>270.25</v>
+        <v>279</v>
       </c>
       <c r="O31">
-        <v>204</v>
+        <v>2131</v>
       </c>
       <c r="P31">
-        <v>238</v>
+        <v>2905.5</v>
       </c>
       <c r="Q31">
-        <v>393</v>
+        <v>1449</v>
       </c>
       <c r="R31">
-        <v>301.75</v>
+        <v>4048</v>
       </c>
       <c r="S31">
-        <v>120</v>
+        <v>410.5</v>
       </c>
       <c r="T31">
-        <v>279</v>
-      </c>
-      <c r="U31">
-        <v>2131</v>
-      </c>
-      <c r="V31">
-        <v>3161</v>
-      </c>
-      <c r="W31">
-        <v>2905.5</v>
-      </c>
-      <c r="X31">
-        <v>1449</v>
-      </c>
-      <c r="Y31">
-        <v>4048</v>
-      </c>
-      <c r="Z31">
-        <v>4514</v>
-      </c>
-      <c r="AA31">
-        <v>3482.5</v>
-      </c>
-      <c r="AB31">
-        <v>410.5</v>
-      </c>
-      <c r="AC31">
         <v>2259.25</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C32">
         <v>644.5</v>
       </c>
       <c r="D32">
-        <v>509</v>
+        <v>398.5</v>
       </c>
       <c r="E32">
-        <v>398.5</v>
+        <v>877.5</v>
       </c>
       <c r="F32">
-        <v>877.5</v>
+        <v>286.5</v>
       </c>
       <c r="G32">
-        <v>286.5</v>
+        <v>441.5</v>
       </c>
       <c r="H32">
-        <v>776</v>
+        <v>148.25</v>
       </c>
       <c r="I32">
-        <v>880</v>
+        <v>154.5</v>
       </c>
       <c r="J32">
-        <v>441.5</v>
+        <v>439.5</v>
       </c>
       <c r="K32">
-        <v>148.25</v>
+        <v>235.75</v>
       </c>
       <c r="L32">
-        <v>154.5</v>
+        <v>318</v>
       </c>
       <c r="M32">
-        <v>465.5</v>
+        <v>123.5</v>
       </c>
       <c r="N32">
-        <v>439.5</v>
+        <v>398</v>
       </c>
       <c r="O32">
-        <v>235.75</v>
+        <v>623.75</v>
       </c>
       <c r="P32">
-        <v>318</v>
+        <v>1443</v>
       </c>
       <c r="Q32">
-        <v>576.5</v>
+        <v>907.25</v>
       </c>
       <c r="R32">
-        <v>479.25</v>
+        <v>1959.75</v>
       </c>
       <c r="S32">
-        <v>123.5</v>
+        <v>206</v>
       </c>
       <c r="T32">
-        <v>398</v>
-      </c>
-      <c r="U32">
-        <v>623.75</v>
-      </c>
-      <c r="V32">
-        <v>1515.75</v>
-      </c>
-      <c r="W32">
-        <v>1443</v>
-      </c>
-      <c r="X32">
-        <v>907.25</v>
-      </c>
-      <c r="Y32">
-        <v>1959.75</v>
-      </c>
-      <c r="Z32">
-        <v>2446.75</v>
-      </c>
-      <c r="AA32">
-        <v>1882.25</v>
-      </c>
-      <c r="AB32">
-        <v>206</v>
-      </c>
-      <c r="AC32">
         <v>1084.5</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="C34" s="8">
         <f>STDEV(C2:C32)</f>
         <v>2208.0840370748901</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:AC34" si="0">STDEV(D2:D32)</f>
-        <v>245.64240115931091</v>
+        <f t="shared" ref="D34:T34" si="0">STDEV(D2:D32)</f>
+        <v>239.67079852720204</v>
       </c>
       <c r="E34" s="8">
         <f t="shared" si="0"/>
-        <v>239.67079852720204</v>
+        <v>7688.5302970220391</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="0"/>
-        <v>7688.5302970220391</v>
+        <v>151.12570472633786</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>151.12570472633786</v>
+        <v>249.67527889735723</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="0"/>
-        <v>296.71983794681273</v>
+        <v>11.828495527818104</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="0"/>
-        <v>1150.0883168518581</v>
+        <v>283.54529848037083</v>
       </c>
       <c r="J34" s="8">
         <f t="shared" si="0"/>
-        <v>249.67527889735723</v>
+        <v>170.2173839409445</v>
       </c>
       <c r="K34" s="8">
         <f t="shared" si="0"/>
-        <v>11.828495527818104</v>
+        <v>404.61428117684881</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" si="0"/>
-        <v>283.54529848037083</v>
+        <v>110.94197723056841</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" si="0"/>
-        <v>175.45540667412561</v>
+        <v>13.300648783593799</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" si="0"/>
-        <v>170.2173839409445</v>
+        <v>130.31902954812696</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="0"/>
-        <v>404.61428117684881</v>
+        <v>1212.1582517497236</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="0"/>
-        <v>110.94197723056841</v>
+        <v>823.12577185404825</v>
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="0"/>
-        <v>207.853274538938</v>
+        <v>915.81346530055248</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>200.36152942398471</v>
+        <v>1323.2430784340627</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="0"/>
-        <v>13.300648783593799</v>
+        <v>94.054526909968928</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" si="0"/>
-        <v>130.31902954812696</v>
-      </c>
-      <c r="U34" s="8">
-        <f t="shared" si="0"/>
-        <v>1212.1582517497236</v>
-      </c>
-      <c r="V34" s="8">
-        <f t="shared" si="0"/>
-        <v>924.7823566243336</v>
-      </c>
-      <c r="W34" s="8">
-        <f t="shared" si="0"/>
-        <v>823.12577185404825</v>
-      </c>
-      <c r="X34" s="8">
-        <f t="shared" si="0"/>
-        <v>915.81346530055248</v>
-      </c>
-      <c r="Y34" s="8">
-        <f t="shared" si="0"/>
-        <v>1323.2430784340627</v>
-      </c>
-      <c r="Z34" s="8">
-        <f t="shared" si="0"/>
-        <v>1254.8535596565823</v>
-      </c>
-      <c r="AA34" s="8">
-        <f t="shared" si="0"/>
-        <v>1185.0710688842471</v>
-      </c>
-      <c r="AB34" s="8">
-        <f t="shared" si="0"/>
-        <v>94.054526909968928</v>
-      </c>
-      <c r="AC34" s="8">
         <f t="shared" si="0"/>
         <v>628.77643705509422</v>
       </c>
@@ -57720,15 +56739,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97722BB7-2402-3B49-BBA0-6559F9455498}">
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -57736,1614 +56755,1101 @@
         <v>273</v>
       </c>
       <c r="C1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" t="s">
         <v>335</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>336</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>337</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>338</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>339</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>340</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>341</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>342</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>343</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>344</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>345</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>346</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>349</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>350</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>351</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>352</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>353</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>354</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>355</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>356</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>357</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>358</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>359</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>360</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>361</v>
       </c>
-      <c r="AD1" t="s">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
         <v>362</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>384</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>385</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>386</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>389</v>
       </c>
       <c r="C2">
         <v>-0.39917773899999998</v>
       </c>
       <c r="D2">
-        <v>-0.61940503700000005</v>
+        <v>-0.67271063099999995</v>
       </c>
       <c r="E2">
-        <v>-0.67271063099999995</v>
+        <v>-0.61046952499999996</v>
       </c>
       <c r="F2">
-        <v>-0.61046952499999996</v>
+        <v>-0.85622661600000005</v>
       </c>
       <c r="G2">
-        <v>-0.85622661600000005</v>
+        <v>-0.632931464</v>
       </c>
       <c r="H2">
-        <v>-0.69617425600000005</v>
+        <v>-0.308206441</v>
       </c>
       <c r="I2">
-        <v>-0.70070954699999999</v>
+        <v>-0.37489273400000001</v>
       </c>
       <c r="J2">
-        <v>-0.632931464</v>
+        <v>0.16132574299999999</v>
       </c>
       <c r="K2">
-        <v>-0.308206441</v>
+        <v>-0.98167710200000002</v>
       </c>
       <c r="L2">
-        <v>-0.37489273400000001</v>
+        <v>0.17613547399999999</v>
       </c>
       <c r="M2">
-        <v>6.9680743000000003E-2</v>
+        <v>1.164256E-2</v>
       </c>
       <c r="N2">
-        <v>0.16132574299999999</v>
+        <v>3.6086366000000002E-2</v>
       </c>
       <c r="O2">
-        <v>-0.98167710200000002</v>
+        <v>-0.55246485499999998</v>
       </c>
       <c r="P2">
-        <v>0.17613547399999999</v>
+        <v>-0.18615664300000001</v>
       </c>
       <c r="Q2">
-        <v>0.24780638099999999</v>
+        <v>-1.089225788</v>
       </c>
       <c r="R2">
-        <v>5.2017454999999997E-2</v>
+        <v>-0.22876640100000001</v>
       </c>
       <c r="S2">
-        <v>1.164256E-2</v>
+        <v>1.261106439</v>
       </c>
       <c r="T2">
-        <v>3.6086366000000002E-2</v>
-      </c>
-      <c r="U2">
-        <v>-0.55246485499999998</v>
-      </c>
-      <c r="V2">
-        <v>0.21801077499999999</v>
-      </c>
-      <c r="W2">
-        <v>-0.18615664300000001</v>
-      </c>
-      <c r="X2">
-        <v>-1.089225788</v>
-      </c>
-      <c r="Y2">
-        <v>-0.22876640100000001</v>
-      </c>
-      <c r="Z2">
-        <v>0.29535750700000002</v>
-      </c>
-      <c r="AA2">
-        <v>-0.20220781299999999</v>
-      </c>
-      <c r="AB2">
-        <v>1.261106439</v>
-      </c>
-      <c r="AC2">
         <v>-0.49389275999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="C3">
         <v>-0.44119001899999999</v>
       </c>
       <c r="D3">
-        <v>-0.69886132599999995</v>
+        <v>-0.74919593399999995</v>
       </c>
       <c r="E3">
-        <v>-0.74919593399999995</v>
+        <v>-0.60460254199999997</v>
       </c>
       <c r="F3">
-        <v>-0.60460254199999997</v>
+        <v>-0.87216775899999999</v>
       </c>
       <c r="G3">
-        <v>-0.87216775899999999</v>
+        <v>-0.72068643799999998</v>
       </c>
       <c r="H3">
-        <v>-0.74110178100000001</v>
+        <v>1.4901676239999999</v>
       </c>
       <c r="I3">
-        <v>-0.76660506699999997</v>
+        <v>-0.50039568199999995</v>
       </c>
       <c r="J3">
-        <v>-0.72068643799999998</v>
+        <v>-0.81047638</v>
       </c>
       <c r="K3">
-        <v>1.4901676239999999</v>
+        <v>-0.99658411199999997</v>
       </c>
       <c r="L3">
-        <v>-0.50039568199999995</v>
+        <v>-0.88215390599999999</v>
       </c>
       <c r="M3">
-        <v>-0.78309415800000004</v>
+        <v>0.19984179299999999</v>
       </c>
       <c r="N3">
-        <v>-0.81047638</v>
+        <v>-0.86154293299999996</v>
       </c>
       <c r="O3">
-        <v>-0.99658411199999997</v>
+        <v>-0.39812459100000003</v>
       </c>
       <c r="P3">
-        <v>-0.88215390599999999</v>
+        <v>-4.8428341999999999E-2</v>
       </c>
       <c r="Q3">
-        <v>-0.75978195299999995</v>
+        <v>-0.78894983100000005</v>
       </c>
       <c r="R3">
-        <v>-0.84578378499999995</v>
+        <v>0.90377345200000003</v>
       </c>
       <c r="S3">
-        <v>0.19984179299999999</v>
+        <v>-0.50050413000000005</v>
       </c>
       <c r="T3">
-        <v>-0.86154293299999996</v>
+        <v>-0.32120854100000001</v>
       </c>
       <c r="U3">
-        <v>-0.39812459100000003</v>
+        <v>-0.33320067399999997</v>
       </c>
       <c r="V3">
-        <v>-0.107931654</v>
+        <v>-6.1735760000000001E-3</v>
       </c>
       <c r="W3">
-        <v>-4.8428341999999999E-2</v>
+        <v>4.1443490999999999E-2</v>
       </c>
       <c r="X3">
-        <v>-0.78894983100000005</v>
+        <v>1.0739947350000001</v>
       </c>
       <c r="Y3">
-        <v>0.90377345200000003</v>
+        <v>0.32156840799999997</v>
       </c>
       <c r="Z3">
-        <v>0.77678753599999995</v>
+        <v>0.71162966000000005</v>
       </c>
       <c r="AA3">
-        <v>-0.43017729500000002</v>
+        <v>-0.43995547499999998</v>
       </c>
       <c r="AB3">
-        <v>-0.50050413000000005</v>
+        <v>-0.47060281599999998</v>
       </c>
       <c r="AC3">
-        <v>-0.32120854100000001</v>
+        <v>8.1588059999999994E-3</v>
       </c>
       <c r="AD3">
-        <v>-0.33320067399999997</v>
+        <v>-0.48720717800000002</v>
       </c>
       <c r="AE3">
-        <v>-0.23607406</v>
+        <v>-0.16670330999999999</v>
       </c>
       <c r="AF3">
-        <v>-6.1735760000000001E-3</v>
+        <v>-0.42035667599999998</v>
       </c>
       <c r="AG3">
-        <v>4.1443490999999999E-2</v>
+        <v>-0.38520056499999999</v>
       </c>
       <c r="AH3">
-        <v>1.0739947350000001</v>
+        <v>1.3937172200000001</v>
       </c>
       <c r="AI3">
-        <v>-0.14444771100000001</v>
+        <v>-1.0364557E-2</v>
       </c>
       <c r="AJ3">
-        <v>-2.0507840999999999E-2</v>
+        <v>2.7183950559999999</v>
       </c>
       <c r="AK3">
-        <v>0.32156840799999997</v>
+        <v>-0.26210040200000001</v>
       </c>
       <c r="AL3">
-        <v>0.71162966000000005</v>
-      </c>
-      <c r="AM3">
-        <v>-0.43995547499999998</v>
-      </c>
-      <c r="AN3">
-        <v>-0.65967790900000001</v>
-      </c>
-      <c r="AO3">
-        <v>-0.47060281599999998</v>
-      </c>
-      <c r="AP3">
-        <v>8.1588059999999994E-3</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.48720717800000002</v>
-      </c>
-      <c r="AR3">
-        <v>-0.56494170300000002</v>
-      </c>
-      <c r="AS3">
-        <v>-0.43270937700000001</v>
-      </c>
-      <c r="AT3">
-        <v>-0.16670330999999999</v>
-      </c>
-      <c r="AU3">
-        <v>-0.42035667599999998</v>
-      </c>
-      <c r="AV3">
-        <v>-0.38520056499999999</v>
-      </c>
-      <c r="AW3">
-        <v>0.86552700800000004</v>
-      </c>
-      <c r="AX3">
-        <v>1.3937172200000001</v>
-      </c>
-      <c r="AY3">
-        <v>-1.0364557E-2</v>
-      </c>
-      <c r="AZ3">
-        <v>2.7183950559999999</v>
-      </c>
-      <c r="BA3">
-        <v>1.598386962</v>
-      </c>
-      <c r="BB3">
-        <v>0.91859777399999998</v>
-      </c>
-      <c r="BC3">
-        <v>-0.26210040200000001</v>
-      </c>
-      <c r="BD3">
         <v>1.3668178390000001</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="C4">
         <v>-0.23885853800000001</v>
       </c>
       <c r="D4">
-        <v>-5.1341289999999998E-2</v>
+        <v>-0.24860428300000001</v>
       </c>
       <c r="E4">
-        <v>-0.24860428300000001</v>
+        <v>-0.56850319000000005</v>
       </c>
       <c r="F4">
-        <v>-0.56850319000000005</v>
+        <v>-0.26890599999999998</v>
       </c>
       <c r="G4">
-        <v>-0.26890599999999998</v>
+        <v>-0.21613901799999999</v>
       </c>
       <c r="H4">
-        <v>-0.148881177</v>
+        <v>-0.27531966699999999</v>
       </c>
       <c r="I4">
-        <v>-0.18381447200000001</v>
+        <v>-0.49559057200000001</v>
       </c>
       <c r="J4">
-        <v>-0.21613901799999999</v>
+        <v>-1.196369928</v>
       </c>
       <c r="K4">
-        <v>-0.27531966699999999</v>
+        <v>-0.82137462000000006</v>
       </c>
       <c r="L4">
-        <v>-0.49559057200000001</v>
+        <v>-1.3609087740000001</v>
       </c>
       <c r="M4">
-        <v>-1.184177139</v>
+        <v>-0.440316924</v>
       </c>
       <c r="N4">
-        <v>-1.196369928</v>
+        <v>-1.2906504620000001</v>
       </c>
       <c r="O4">
-        <v>-0.82137462000000006</v>
+        <v>-0.70985981499999995</v>
       </c>
       <c r="P4">
-        <v>-1.3609087740000001</v>
+        <v>-0.30910979999999999</v>
       </c>
       <c r="Q4">
-        <v>-1.2990864870000001</v>
+        <v>-1.0433548640000001</v>
       </c>
       <c r="R4">
-        <v>-1.176256872</v>
+        <v>-0.378406191</v>
       </c>
       <c r="S4">
-        <v>-0.440316924</v>
+        <v>-0.95150274099999999</v>
       </c>
       <c r="T4">
-        <v>-1.2906504620000001</v>
+        <v>-0.90136180099999996</v>
       </c>
       <c r="U4">
-        <v>-0.70985981499999995</v>
+        <v>0.46248568600000001</v>
       </c>
       <c r="V4">
-        <v>-0.32914242799999999</v>
+        <v>2.6846222110000002</v>
       </c>
       <c r="W4">
-        <v>-0.30910979999999999</v>
+        <v>0.39781843700000002</v>
       </c>
       <c r="X4">
-        <v>-1.0433548640000001</v>
+        <v>2.6230330940000002</v>
       </c>
       <c r="Y4">
-        <v>-0.378406191</v>
+        <v>3.1352444209999999</v>
       </c>
       <c r="Z4">
-        <v>-0.24345112999999999</v>
+        <v>2.628610616</v>
       </c>
       <c r="AA4">
-        <v>-0.54115627499999996</v>
+        <v>-0.41008864699999997</v>
       </c>
       <c r="AB4">
-        <v>-0.95150274099999999</v>
+        <v>-0.88628879299999996</v>
       </c>
       <c r="AC4">
-        <v>-0.90136180099999996</v>
+        <v>5.6107045000000001E-2</v>
       </c>
       <c r="AD4">
-        <v>0.46248568600000001</v>
+        <v>-0.93300745200000001</v>
       </c>
       <c r="AE4">
-        <v>2.6600168740000001</v>
+        <v>-0.32547475999999997</v>
       </c>
       <c r="AF4">
-        <v>2.6846222110000002</v>
+        <v>-0.86815900099999999</v>
       </c>
       <c r="AG4">
-        <v>0.39781843700000002</v>
+        <v>-0.70400406299999996</v>
       </c>
       <c r="AH4">
-        <v>2.6230330940000002</v>
+        <v>-0.35648244099999998</v>
       </c>
       <c r="AI4">
-        <v>2.7554779730000001</v>
+        <v>-0.58588158000000001</v>
       </c>
       <c r="AJ4">
-        <v>1.628593086</v>
+        <v>-7.4221312999999997E-2</v>
       </c>
       <c r="AK4">
-        <v>3.1352444209999999</v>
+        <v>-0.92416100300000004</v>
       </c>
       <c r="AL4">
-        <v>2.628610616</v>
-      </c>
-      <c r="AM4">
-        <v>-0.41008864699999997</v>
-      </c>
-      <c r="AN4">
-        <v>-0.87994347799999995</v>
-      </c>
-      <c r="AO4">
-        <v>-0.88628879299999996</v>
-      </c>
-      <c r="AP4">
-        <v>5.6107045000000001E-2</v>
-      </c>
-      <c r="AQ4">
-        <v>-0.93300745200000001</v>
-      </c>
-      <c r="AR4">
-        <v>-1.030433046</v>
-      </c>
-      <c r="AS4">
-        <v>-0.91326676600000001</v>
-      </c>
-      <c r="AT4">
-        <v>-0.32547475999999997</v>
-      </c>
-      <c r="AU4">
-        <v>-0.86815900099999999</v>
-      </c>
-      <c r="AV4">
-        <v>-0.70400406299999996</v>
-      </c>
-      <c r="AW4">
-        <v>-0.33201236099999998</v>
-      </c>
-      <c r="AX4">
-        <v>-0.35648244099999998</v>
-      </c>
-      <c r="AY4">
-        <v>-0.58588158000000001</v>
-      </c>
-      <c r="AZ4">
-        <v>-7.4221312999999997E-2</v>
-      </c>
-      <c r="BA4">
-        <v>8.6797146000000006E-2</v>
-      </c>
-      <c r="BB4">
-        <v>-0.52312043100000005</v>
-      </c>
-      <c r="BC4">
-        <v>-0.92416100300000004</v>
-      </c>
-      <c r="BD4">
         <v>-0.737934584</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="C5">
         <v>-0.44445348000000001</v>
       </c>
       <c r="D5">
-        <v>-0.73669269400000004</v>
+        <v>-0.71802989699999997</v>
       </c>
       <c r="E5">
-        <v>-0.71802989699999997</v>
+        <v>-0.16745877300000001</v>
       </c>
       <c r="F5">
-        <v>-0.16745877300000001</v>
+        <v>-0.58883064500000004</v>
       </c>
       <c r="G5">
-        <v>-0.58883064500000004</v>
+        <v>-0.62348490300000003</v>
       </c>
       <c r="H5">
-        <v>-0.75538868299999995</v>
+        <v>0.219349617</v>
       </c>
       <c r="I5">
-        <v>-0.75722404700000001</v>
+        <v>-0.37851253800000001</v>
       </c>
       <c r="J5">
-        <v>-0.62348490300000003</v>
+        <v>0.52249908</v>
       </c>
       <c r="K5">
-        <v>0.219349617</v>
+        <v>-2.3720158000000002E-2</v>
       </c>
       <c r="L5">
-        <v>-0.37851253800000001</v>
+        <v>0.84000689299999998</v>
       </c>
       <c r="M5">
-        <v>0.56600792700000002</v>
+        <v>0.50327600699999997</v>
       </c>
       <c r="N5">
-        <v>0.52249908</v>
+        <v>0.44828177499999999</v>
       </c>
       <c r="O5">
-        <v>-2.3720158000000002E-2</v>
+        <v>-0.67958490199999999</v>
       </c>
       <c r="P5">
-        <v>0.84000689299999998</v>
+        <v>-1.4067696199999999</v>
       </c>
       <c r="Q5">
-        <v>0.82999519399999999</v>
+        <v>-0.98330246700000001</v>
       </c>
       <c r="R5">
-        <v>0.387330175</v>
+        <v>-1.3006686160000001</v>
       </c>
       <c r="S5">
-        <v>0.50327600699999997</v>
+        <v>-1.2101079239999999</v>
       </c>
       <c r="T5">
-        <v>0.44828177499999999</v>
+        <v>-1.5202014210000001</v>
       </c>
       <c r="U5">
-        <v>-0.67958490199999999</v>
+        <v>-0.40189404000000001</v>
       </c>
       <c r="V5">
-        <v>-1.640423371</v>
+        <v>-0.42986810199999997</v>
       </c>
       <c r="W5">
-        <v>-1.4067696199999999</v>
+        <v>-0.43772372799999998</v>
       </c>
       <c r="X5">
-        <v>-0.98330246700000001</v>
+        <v>-0.61501501400000003</v>
       </c>
       <c r="Y5">
-        <v>-1.3006686160000001</v>
+        <v>-0.29623536499999997</v>
       </c>
       <c r="Z5">
-        <v>-1.2133918269999999</v>
+        <v>-0.26083933799999998</v>
       </c>
       <c r="AA5">
-        <v>-1.4650930200000001</v>
+        <v>-0.237378381</v>
       </c>
       <c r="AB5">
-        <v>-1.2101079239999999</v>
+        <v>1.3546841919999999</v>
       </c>
       <c r="AC5">
-        <v>-1.5202014210000001</v>
+        <v>-0.31823443400000001</v>
       </c>
       <c r="AD5">
-        <v>-0.40189404000000001</v>
+        <v>1.4590818329999999</v>
       </c>
       <c r="AE5">
-        <v>-0.41488831100000001</v>
+        <v>0.82893064100000002</v>
       </c>
       <c r="AF5">
-        <v>-0.42986810199999997</v>
+        <v>1.5921795940000001</v>
       </c>
       <c r="AG5">
-        <v>-0.43772372799999998</v>
+        <v>-0.84530238899999999</v>
       </c>
       <c r="AH5">
-        <v>-0.61501501400000003</v>
+        <v>-2.1321110590000001</v>
       </c>
       <c r="AI5">
-        <v>-0.37476873700000002</v>
+        <v>-1.547512545</v>
       </c>
       <c r="AJ5">
-        <v>-0.62049045899999999</v>
+        <v>-1.826930816</v>
       </c>
       <c r="AK5">
-        <v>-0.29623536499999997</v>
+        <v>-0.80147932300000002</v>
       </c>
       <c r="AL5">
-        <v>-0.26083933799999998</v>
-      </c>
-      <c r="AM5">
-        <v>-0.237378381</v>
-      </c>
-      <c r="AN5">
-        <v>1.2684537039999999</v>
-      </c>
-      <c r="AO5">
-        <v>1.3546841919999999</v>
-      </c>
-      <c r="AP5">
-        <v>-0.31823443400000001</v>
-      </c>
-      <c r="AQ5">
-        <v>1.4590818329999999</v>
-      </c>
-      <c r="AR5">
-        <v>1.1831710769999999</v>
-      </c>
-      <c r="AS5">
-        <v>0.73920036600000005</v>
-      </c>
-      <c r="AT5">
-        <v>0.82893064100000002</v>
-      </c>
-      <c r="AU5">
-        <v>1.5921795940000001</v>
-      </c>
-      <c r="AV5">
-        <v>-0.84530238899999999</v>
-      </c>
-      <c r="AW5">
-        <v>-2.493145878</v>
-      </c>
-      <c r="AX5">
-        <v>-2.1321110590000001</v>
-      </c>
-      <c r="AY5">
-        <v>-1.547512545</v>
-      </c>
-      <c r="AZ5">
-        <v>-1.826930816</v>
-      </c>
-      <c r="BA5">
-        <v>-2.3110834109999998</v>
-      </c>
-      <c r="BB5">
-        <v>-2.2553803459999999</v>
-      </c>
-      <c r="BC5">
-        <v>-0.80147932300000002</v>
-      </c>
-      <c r="BD5">
         <v>-2.1284029649999998</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="C6">
         <v>-0.28080086799999998</v>
       </c>
       <c r="D6">
-        <v>-2.1130098E-2</v>
+        <v>-6.8238181999999994E-2</v>
       </c>
       <c r="E6">
-        <v>-6.8238181999999994E-2</v>
+        <v>-0.59727409899999995</v>
       </c>
       <c r="F6">
-        <v>-0.59727409899999995</v>
+        <v>-0.17743273400000001</v>
       </c>
       <c r="G6">
-        <v>-0.17743273400000001</v>
+        <v>-0.164929565</v>
       </c>
       <c r="H6">
-        <v>-0.14551397399999999</v>
+        <v>0.20063477699999999</v>
       </c>
       <c r="I6">
-        <v>-0.54001911899999999</v>
+        <v>-0.124196441</v>
       </c>
       <c r="J6">
-        <v>-0.164929565</v>
+        <v>0.72288859299999997</v>
       </c>
       <c r="K6">
-        <v>0.20063477699999999</v>
+        <v>-0.87183298399999998</v>
       </c>
       <c r="L6">
-        <v>-0.124196441</v>
+        <v>0.58051854999999997</v>
       </c>
       <c r="M6">
-        <v>0.59346436999999996</v>
+        <v>0.61518798500000005</v>
       </c>
       <c r="N6">
-        <v>0.72288859299999997</v>
+        <v>0.646502189</v>
       </c>
       <c r="O6">
-        <v>-0.87183298399999998</v>
+        <v>-0.24901661899999999</v>
       </c>
       <c r="P6">
-        <v>0.58051854999999997</v>
+        <v>-0.89993451499999999</v>
       </c>
       <c r="Q6">
-        <v>0.83996519000000003</v>
+        <v>9.1820434000000006E-2</v>
       </c>
       <c r="R6">
-        <v>0.55119246899999996</v>
+        <v>-0.39710314099999999</v>
       </c>
       <c r="S6">
-        <v>0.61518798500000005</v>
+        <v>-0.489040166</v>
       </c>
       <c r="T6">
-        <v>0.646502189</v>
+        <v>-0.596415001</v>
       </c>
       <c r="U6">
-        <v>-0.24901661899999999</v>
+        <v>-0.34565832099999999</v>
       </c>
       <c r="V6">
-        <v>-1.047565342</v>
+        <v>-0.16990712199999999</v>
       </c>
       <c r="W6">
-        <v>-0.89993451499999999</v>
+        <v>-0.27131774600000003</v>
       </c>
       <c r="X6">
-        <v>9.1820434000000006E-2</v>
+        <v>8.0620221000000006E-2</v>
       </c>
       <c r="Y6">
-        <v>-0.39710314099999999</v>
+        <v>6.1063741999999997E-2</v>
       </c>
       <c r="Z6">
-        <v>-1.2166570699999999</v>
+        <v>-0.57087656399999998</v>
       </c>
       <c r="AA6">
-        <v>-0.44430033299999999</v>
+        <v>0.109543086</v>
       </c>
       <c r="AB6">
-        <v>-0.489040166</v>
+        <v>1.7871386039999999</v>
       </c>
       <c r="AC6">
-        <v>-0.596415001</v>
+        <v>0.55942110899999997</v>
       </c>
       <c r="AD6">
-        <v>-0.34565832099999999</v>
+        <v>1.5161948629999999</v>
       </c>
       <c r="AE6">
-        <v>-0.24806473200000001</v>
+        <v>0.64692659100000005</v>
       </c>
       <c r="AF6">
-        <v>-0.16990712199999999</v>
+        <v>1.9768391590000001</v>
       </c>
       <c r="AG6">
-        <v>-0.27131774600000003</v>
+        <v>-0.20075707100000001</v>
       </c>
       <c r="AH6">
-        <v>8.0620221000000006E-2</v>
+        <v>-0.251655236</v>
       </c>
       <c r="AI6">
-        <v>-0.34629201799999998</v>
+        <v>1.3123570870000001</v>
       </c>
       <c r="AJ6">
-        <v>2.6048383249999998</v>
+        <v>4.2589640999999998E-2</v>
       </c>
       <c r="AK6">
-        <v>6.1063741999999997E-2</v>
+        <v>-0.155770873</v>
       </c>
       <c r="AL6">
-        <v>-0.57087656399999998</v>
-      </c>
-      <c r="AM6">
-        <v>0.109543086</v>
-      </c>
-      <c r="AN6">
-        <v>1.716373342</v>
-      </c>
-      <c r="AO6">
-        <v>1.7871386039999999</v>
-      </c>
-      <c r="AP6">
-        <v>0.55942110899999997</v>
-      </c>
-      <c r="AQ6">
-        <v>1.5161948629999999</v>
-      </c>
-      <c r="AR6">
-        <v>1.7979041039999999</v>
-      </c>
-      <c r="AS6">
-        <v>2.158684322</v>
-      </c>
-      <c r="AT6">
-        <v>0.64692659100000005</v>
-      </c>
-      <c r="AU6">
-        <v>1.9768391590000001</v>
-      </c>
-      <c r="AV6">
-        <v>-0.20075707100000001</v>
-      </c>
-      <c r="AW6">
-        <v>-0.25949598600000001</v>
-      </c>
-      <c r="AX6">
-        <v>-0.251655236</v>
-      </c>
-      <c r="AY6">
-        <v>1.3123570870000001</v>
-      </c>
-      <c r="AZ6">
-        <v>4.2589640999999998E-2</v>
-      </c>
-      <c r="BA6">
-        <v>-0.72906084699999996</v>
-      </c>
-      <c r="BB6">
-        <v>0.19767352599999999</v>
-      </c>
-      <c r="BC6">
-        <v>-0.155770873</v>
-      </c>
-      <c r="BD6">
         <v>2.142938E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="C7">
         <v>-0.38196169200000002</v>
       </c>
       <c r="D7">
-        <v>-0.49238081900000003</v>
+        <v>-0.56415037099999998</v>
       </c>
       <c r="E7">
-        <v>-0.56415037099999998</v>
+        <v>-0.60624257400000003</v>
       </c>
       <c r="F7">
-        <v>-0.60624257400000003</v>
+        <v>-0.68118227799999997</v>
       </c>
       <c r="G7">
-        <v>-0.68118227799999997</v>
+        <v>-0.55889153800000002</v>
       </c>
       <c r="H7">
-        <v>-0.41959906000000002</v>
+        <v>-0.81589192600000005</v>
       </c>
       <c r="I7">
-        <v>-0.51105293799999996</v>
+        <v>-0.38286402600000002</v>
       </c>
       <c r="J7">
-        <v>-0.55889153800000002</v>
+        <v>-0.57528728500000004</v>
       </c>
       <c r="K7">
-        <v>-0.81589192600000005</v>
+        <v>-0.870027832</v>
       </c>
       <c r="L7">
-        <v>-0.38286402600000002</v>
+        <v>-0.54559930199999995</v>
       </c>
       <c r="M7">
-        <v>-0.48399060500000002</v>
+        <v>0.96710915099999994</v>
       </c>
       <c r="N7">
-        <v>-0.57528728500000004</v>
+        <v>-0.49569191200000001</v>
       </c>
       <c r="O7">
-        <v>-0.870027832</v>
+        <v>-0.787245953</v>
       </c>
       <c r="P7">
-        <v>-0.54559930199999995</v>
+        <v>0.28784550800000003</v>
       </c>
       <c r="Q7">
-        <v>-0.43681228</v>
+        <v>1.1227372600000001</v>
       </c>
       <c r="R7">
-        <v>-0.43628686</v>
+        <v>0.50548939000000004</v>
       </c>
       <c r="S7">
+        <v>1.8312476010000001</v>
+      </c>
+      <c r="T7">
+        <v>0.33649252699999999</v>
+      </c>
+      <c r="U7">
+        <v>3.7360944800000002</v>
+      </c>
+      <c r="V7">
+        <v>-4.1583099999999998E-2</v>
+      </c>
+      <c r="W7">
+        <v>-0.55288073999999998</v>
+      </c>
+      <c r="X7">
+        <v>-4.5544781999999999E-2</v>
+      </c>
+      <c r="Y7">
+        <v>0.13031224</v>
+      </c>
+      <c r="Z7">
+        <v>0.90847616600000003</v>
+      </c>
+      <c r="AA7">
+        <v>3.7494384520000001</v>
+      </c>
+      <c r="AB7">
+        <v>-0.63328006400000003</v>
+      </c>
+      <c r="AC7">
+        <v>-0.65282354799999998</v>
+      </c>
+      <c r="AD7">
+        <v>-0.54778511799999996</v>
+      </c>
+      <c r="AE7">
         <v>0.96710915099999994</v>
       </c>
-      <c r="T7">
-        <v>-0.49569191200000001</v>
-      </c>
-      <c r="U7">
-        <v>-0.787245953</v>
-      </c>
-      <c r="V7">
-        <v>0.40868401300000001</v>
-      </c>
-      <c r="W7">
-        <v>0.28784550800000003</v>
-      </c>
-      <c r="X7">
-        <v>1.1227372600000001</v>
-      </c>
-      <c r="Y7">
-        <v>0.50548939000000004</v>
-      </c>
-      <c r="Z7">
-        <v>0.51446516200000003</v>
-      </c>
-      <c r="AA7">
-        <v>0.99310116100000001</v>
-      </c>
-      <c r="AB7">
-        <v>1.8312476010000001</v>
-      </c>
-      <c r="AC7">
-        <v>0.33649252699999999</v>
-      </c>
-      <c r="AD7">
-        <v>3.7360944800000002</v>
-      </c>
-      <c r="AE7">
-        <v>-5.6566539999999997E-3</v>
-      </c>
       <c r="AF7">
-        <v>-4.1583099999999998E-2</v>
+        <v>-0.58167964999999999</v>
       </c>
       <c r="AG7">
-        <v>-0.55288073999999998</v>
+        <v>-0.71714100599999997</v>
       </c>
       <c r="AH7">
-        <v>-4.5544781999999999E-2</v>
+        <v>0.73920196400000004</v>
       </c>
       <c r="AI7">
-        <v>0.13753031299999999</v>
+        <v>1.351946654</v>
       </c>
       <c r="AJ7">
-        <v>-0.28663085799999999</v>
+        <v>1.0966866749999999</v>
       </c>
       <c r="AK7">
-        <v>0.13031224</v>
+        <v>2.1382132899999999</v>
       </c>
       <c r="AL7">
-        <v>0.90847616600000003</v>
-      </c>
-      <c r="AM7">
-        <v>3.7494384520000001</v>
-      </c>
-      <c r="AN7">
-        <v>-0.570553439</v>
-      </c>
-      <c r="AO7">
-        <v>-0.63328006400000003</v>
-      </c>
-      <c r="AP7">
-        <v>-0.65282354799999998</v>
-      </c>
-      <c r="AQ7">
-        <v>-0.54778511799999996</v>
-      </c>
-      <c r="AR7">
-        <v>-0.48818830000000002</v>
-      </c>
-      <c r="AS7">
-        <v>-0.52546540200000003</v>
-      </c>
-      <c r="AT7">
-        <v>0.96710915099999994</v>
-      </c>
-      <c r="AU7">
-        <v>-0.58167964999999999</v>
-      </c>
-      <c r="AV7">
-        <v>-0.71714100599999997</v>
-      </c>
-      <c r="AW7">
-        <v>0.82863100199999995</v>
-      </c>
-      <c r="AX7">
-        <v>0.73920196400000004</v>
-      </c>
-      <c r="AY7">
-        <v>1.351946654</v>
-      </c>
-      <c r="AZ7">
-        <v>1.0966866749999999</v>
-      </c>
-      <c r="BA7">
-        <v>0.76443523800000002</v>
-      </c>
-      <c r="BB7">
-        <v>1.341812923</v>
-      </c>
-      <c r="BC7">
-        <v>2.1382132899999999</v>
-      </c>
-      <c r="BD7">
         <v>1.0784946609999999</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C8">
         <v>-0.31572009400000001</v>
       </c>
       <c r="D8">
-        <v>-0.16716821500000001</v>
+        <v>-0.26514304100000002</v>
       </c>
       <c r="E8">
-        <v>-0.26514304100000002</v>
+        <v>9.0620170000000003E-3</v>
       </c>
       <c r="F8">
-        <v>9.0620170000000003E-3</v>
+        <v>-0.34347991700000002</v>
       </c>
       <c r="G8">
-        <v>-0.34347991700000002</v>
+        <v>-0.440306168</v>
       </c>
       <c r="H8">
-        <v>-7.9047379999999997E-3</v>
+        <v>-0.37053669299999997</v>
       </c>
       <c r="I8">
-        <v>-0.334731112</v>
+        <v>-0.242671357</v>
       </c>
       <c r="J8">
-        <v>-0.440306168</v>
+        <v>0.41423267699999999</v>
       </c>
       <c r="K8">
-        <v>-0.37053669299999997</v>
+        <v>6.9177968000000006E-2</v>
       </c>
       <c r="L8">
-        <v>-0.242671357</v>
+        <v>0.57345154799999998</v>
       </c>
       <c r="M8">
-        <v>0.65903525600000001</v>
+        <v>-2.4707513830000001</v>
       </c>
       <c r="N8">
-        <v>0.41423267699999999</v>
+        <v>0.29339473500000002</v>
       </c>
       <c r="O8">
-        <v>6.9177968000000006E-2</v>
+        <v>0.43765273100000002</v>
       </c>
       <c r="P8">
-        <v>0.57345154799999998</v>
+        <v>7.1558135999999994E-2</v>
       </c>
       <c r="Q8">
-        <v>0.55483055100000001</v>
+        <v>1.491645152</v>
       </c>
       <c r="R8">
-        <v>0.42625745500000001</v>
+        <v>0.31769347399999998</v>
       </c>
       <c r="S8">
-        <v>-2.4707513830000001</v>
+        <v>-0.58981318800000004</v>
       </c>
       <c r="T8">
-        <v>0.29339473500000002</v>
+        <v>1.09848137</v>
       </c>
       <c r="U8">
-        <v>0.43765273100000002</v>
+        <v>-0.20652700299999999</v>
       </c>
       <c r="V8">
-        <v>0.61927466900000006</v>
+        <v>0.542605962</v>
       </c>
       <c r="W8">
-        <v>7.1558135999999994E-2</v>
+        <v>3.5936817630000002</v>
       </c>
       <c r="X8">
-        <v>1.491645152</v>
+        <v>-0.13564794199999999</v>
       </c>
       <c r="Y8">
-        <v>0.31769347399999998</v>
+        <v>-0.32331428400000001</v>
       </c>
       <c r="Z8">
-        <v>0.19725009700000001</v>
+        <v>-1.3151457660000001</v>
       </c>
       <c r="AA8">
-        <v>0.39597168900000002</v>
+        <v>0.25923053800000001</v>
       </c>
       <c r="AB8">
-        <v>-0.58981318800000004</v>
+        <v>1.7329733979999999</v>
       </c>
       <c r="AC8">
-        <v>1.09848137</v>
+        <v>2.8224394269999999</v>
       </c>
       <c r="AD8">
-        <v>-0.20652700299999999</v>
+        <v>1.629566565</v>
       </c>
       <c r="AE8">
-        <v>-3.4208070000000001E-3</v>
+        <v>-2.304296415</v>
       </c>
       <c r="AF8">
-        <v>0.542605962</v>
+        <v>1.3636749770000001</v>
       </c>
       <c r="AG8">
-        <v>3.5936817630000002</v>
+        <v>8.7067841000000007E-2</v>
       </c>
       <c r="AH8">
-        <v>-0.13564794199999999</v>
+        <v>-0.410573994</v>
       </c>
       <c r="AI8">
-        <v>0.178268704</v>
+        <v>1.0373396450000001</v>
       </c>
       <c r="AJ8">
-        <v>0.54011768500000001</v>
+        <v>9.7640567999999997E-2</v>
       </c>
       <c r="AK8">
-        <v>-0.32331428400000001</v>
+        <v>-0.59164731299999995</v>
       </c>
       <c r="AL8">
-        <v>-1.3151457660000001</v>
-      </c>
-      <c r="AM8">
-        <v>0.25923053800000001</v>
-      </c>
-      <c r="AN8">
-        <v>1.860182904</v>
-      </c>
-      <c r="AO8">
-        <v>1.7329733979999999</v>
-      </c>
-      <c r="AP8">
-        <v>2.8224394269999999</v>
-      </c>
-      <c r="AQ8">
-        <v>1.629566565</v>
-      </c>
-      <c r="AR8">
-        <v>1.5329436919999999</v>
-      </c>
-      <c r="AS8">
-        <v>1.836720007</v>
-      </c>
-      <c r="AT8">
-        <v>-2.304296415</v>
-      </c>
-      <c r="AU8">
-        <v>1.3636749770000001</v>
-      </c>
-      <c r="AV8">
-        <v>8.7067841000000007E-2</v>
-      </c>
-      <c r="AW8">
-        <v>6.2630000000000003E-3</v>
-      </c>
-      <c r="AX8">
-        <v>-0.410573994</v>
-      </c>
-      <c r="AY8">
-        <v>1.0373396450000001</v>
-      </c>
-      <c r="AZ8">
-        <v>9.7640567999999997E-2</v>
-      </c>
-      <c r="BA8">
-        <v>-0.477604203</v>
-      </c>
-      <c r="BB8">
-        <v>-0.208406114</v>
-      </c>
-      <c r="BC8">
-        <v>-0.59164731299999995</v>
-      </c>
-      <c r="BD8">
         <v>0.359138703</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="C9">
         <v>-4.4196666000000003E-2</v>
       </c>
       <c r="D9">
-        <v>0.49240483600000001</v>
+        <v>0.28494217500000002</v>
       </c>
       <c r="E9">
-        <v>0.28494217500000002</v>
+        <v>-0.48139283199999999</v>
       </c>
       <c r="F9">
-        <v>-0.48139283199999999</v>
+        <v>0.113707981</v>
       </c>
       <c r="G9">
-        <v>0.113707981</v>
+        <v>3.1353502999999998E-2</v>
       </c>
       <c r="H9">
-        <v>0.73153335200000003</v>
+        <v>-3.7845169999999997E-2</v>
       </c>
       <c r="I9">
-        <v>0.49126233499999999</v>
+        <v>-0.28656875799999998</v>
       </c>
       <c r="J9">
-        <v>3.1353502999999998E-2</v>
+        <v>-7.5757041999999997E-2</v>
       </c>
       <c r="K9">
+        <v>-0.32593333899999999</v>
+      </c>
+      <c r="L9">
+        <v>4.3705318E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.48709097200000001</v>
+      </c>
+      <c r="N9">
+        <v>3.2110586000000003E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.69287696399999998</v>
+      </c>
+      <c r="P9">
+        <v>7.6863939000000006E-2</v>
+      </c>
+      <c r="Q9">
+        <v>-0.42120286499999998</v>
+      </c>
+      <c r="R9">
+        <v>-0.26276715699999997</v>
+      </c>
+      <c r="S9">
+        <v>2.5180330000000001E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.17870940900000001</v>
+      </c>
+      <c r="U9">
+        <v>0.38768921899999997</v>
+      </c>
+      <c r="V9">
+        <v>2.1666624520000002</v>
+      </c>
+      <c r="W9">
+        <v>0.44149802300000002</v>
+      </c>
+      <c r="X9">
+        <v>2.0296409980000001</v>
+      </c>
+      <c r="Y9">
+        <v>1.718425474</v>
+      </c>
+      <c r="Z9">
         <v>-3.7845169999999997E-2</v>
       </c>
-      <c r="L9">
-        <v>-0.28656875799999998</v>
-      </c>
-      <c r="M9">
-        <v>-6.4384256000000001E-2</v>
-      </c>
-      <c r="N9">
-        <v>-7.5757041999999997E-2</v>
-      </c>
-      <c r="O9">
-        <v>-0.32593333899999999</v>
-      </c>
-      <c r="P9">
-        <v>4.3705318E-2</v>
-      </c>
-      <c r="Q9">
-        <v>-9.0844822000000006E-2</v>
-      </c>
-      <c r="R9">
-        <v>9.8070247999999999E-2</v>
-      </c>
-      <c r="S9">
-        <v>0.48709097200000001</v>
-      </c>
-      <c r="T9">
-        <v>3.2110586000000003E-2</v>
-      </c>
-      <c r="U9">
-        <v>0.69287696399999998</v>
-      </c>
-      <c r="V9">
-        <v>0.60691068800000003</v>
-      </c>
-      <c r="W9">
-        <v>7.6863939000000006E-2</v>
-      </c>
-      <c r="X9">
-        <v>-0.42120286499999998</v>
-      </c>
-      <c r="Y9">
-        <v>-0.26276715699999997</v>
-      </c>
-      <c r="Z9">
-        <v>7.7071405999999995E-2</v>
-      </c>
       <c r="AA9">
-        <v>-2.9482706000000001E-2</v>
+        <v>-9.8293478000000004E-2</v>
       </c>
       <c r="AB9">
-        <v>2.5180330000000001E-2</v>
+        <v>0.39500875299999999</v>
       </c>
       <c r="AC9">
-        <v>0.17870940900000001</v>
+        <v>1.6315850919999999</v>
       </c>
       <c r="AD9">
-        <v>0.38768921899999997</v>
+        <v>0.394825439</v>
       </c>
       <c r="AE9">
-        <v>2.2794389690000001</v>
+        <v>0.60084213500000005</v>
       </c>
       <c r="AF9">
-        <v>2.1666624520000002</v>
+        <v>0.50091924899999996</v>
       </c>
       <c r="AG9">
-        <v>0.44149802300000002</v>
+        <v>0.38236646699999999</v>
       </c>
       <c r="AH9">
-        <v>2.0296409980000001</v>
+        <v>0.41834597699999998</v>
       </c>
       <c r="AI9">
-        <v>1.9445190349999999</v>
+        <v>-0.30099879400000001</v>
       </c>
       <c r="AJ9">
-        <v>1.259561492</v>
+        <v>-0.190959144</v>
       </c>
       <c r="AK9">
-        <v>1.718425474</v>
+        <v>-7.8818330000000006E-2</v>
       </c>
       <c r="AL9">
-        <v>-3.7845169999999997E-2</v>
-      </c>
-      <c r="AM9">
-        <v>-9.8293478000000004E-2</v>
-      </c>
-      <c r="AN9">
-        <v>0.33156005599999999</v>
-      </c>
-      <c r="AO9">
-        <v>0.39500875299999999</v>
-      </c>
-      <c r="AP9">
-        <v>1.6315850919999999</v>
-      </c>
-      <c r="AQ9">
-        <v>0.394825439</v>
-      </c>
-      <c r="AR9">
-        <v>0.18703140200000001</v>
-      </c>
-      <c r="AS9">
-        <v>0.50191781899999999</v>
-      </c>
-      <c r="AT9">
-        <v>0.60084213500000005</v>
-      </c>
-      <c r="AU9">
-        <v>0.50091924899999996</v>
-      </c>
-      <c r="AV9">
-        <v>0.38236646699999999</v>
-      </c>
-      <c r="AW9">
-        <v>0.62843694999999999</v>
-      </c>
-      <c r="AX9">
-        <v>0.41834597699999998</v>
-      </c>
-      <c r="AY9">
-        <v>-0.30099879400000001</v>
-      </c>
-      <c r="AZ9">
-        <v>-0.190959144</v>
-      </c>
-      <c r="BA9">
-        <v>2.3866070999999999E-2</v>
-      </c>
-      <c r="BB9">
-        <v>6.1783825000000001E-2</v>
-      </c>
-      <c r="BC9">
-        <v>-7.8818330000000006E-2</v>
-      </c>
-      <c r="BD9">
         <v>0.60594004599999995</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="C10">
         <v>-0.48708781499999998</v>
       </c>
       <c r="D10">
-        <v>-0.860848473</v>
+        <v>-0.87151919499999997</v>
       </c>
       <c r="E10">
-        <v>-0.87151919499999997</v>
+        <v>8.8289883999999999E-2</v>
       </c>
       <c r="F10">
-        <v>8.8289883999999999E-2</v>
+        <v>-0.73588100599999995</v>
       </c>
       <c r="G10">
-        <v>-0.73588100599999995</v>
+        <v>-0.73609349400000001</v>
       </c>
       <c r="H10">
-        <v>-0.97663657699999995</v>
+        <v>-1.121596474</v>
       </c>
       <c r="I10">
-        <v>-0.90138848900000001</v>
+        <v>-0.486408648</v>
       </c>
       <c r="J10">
-        <v>-0.73609349400000001</v>
+        <v>-1.2552528300000001</v>
       </c>
       <c r="K10">
-        <v>-1.121596474</v>
+        <v>0.27968809900000002</v>
       </c>
       <c r="L10">
-        <v>-0.486408648</v>
+        <v>-1.2643436029999999</v>
       </c>
       <c r="M10">
-        <v>-1.221581724</v>
+        <v>-0.10726356300000001</v>
       </c>
       <c r="N10">
-        <v>-1.2552528300000001</v>
+        <v>-1.2291746059999999</v>
       </c>
       <c r="O10">
-        <v>0.27968809900000002</v>
+        <v>2.7821483090000001</v>
       </c>
       <c r="P10">
-        <v>-1.2643436029999999</v>
+        <v>2.1681935700000001</v>
       </c>
       <c r="Q10">
-        <v>-1.2828948650000001</v>
+        <v>0.86833067200000003</v>
       </c>
       <c r="R10">
-        <v>-1.238534604</v>
+        <v>-0.18977713299999999</v>
       </c>
       <c r="S10">
-        <v>-0.10726356300000001</v>
+        <v>1.1428886570000001</v>
       </c>
       <c r="T10">
-        <v>-1.2291746059999999</v>
+        <v>1.4768957330000001</v>
       </c>
       <c r="U10">
-        <v>2.7821483090000001</v>
+        <v>-0.26554243799999999</v>
       </c>
       <c r="V10">
-        <v>1.663915021</v>
+        <v>-0.87370936499999996</v>
       </c>
       <c r="W10">
-        <v>2.1681935700000001</v>
+        <v>0.32607213499999999</v>
       </c>
       <c r="X10">
-        <v>0.86833067200000003</v>
+        <v>-0.60068233800000004</v>
       </c>
       <c r="Y10">
-        <v>-0.18977713299999999</v>
+        <v>-0.68495555100000005</v>
       </c>
       <c r="Z10">
-        <v>1.64117147</v>
+        <v>-1.0447652510000001</v>
       </c>
       <c r="AA10">
-        <v>1.962227489</v>
+        <v>0.33960465899999998</v>
       </c>
       <c r="AB10">
-        <v>1.1428886570000001</v>
+        <v>-1.1874359029999999</v>
       </c>
       <c r="AC10">
-        <v>1.4768957330000001</v>
+        <v>0.43563058300000002</v>
       </c>
       <c r="AD10">
-        <v>-0.26554243799999999</v>
+        <v>-1.1924811500000001</v>
       </c>
       <c r="AE10">
-        <v>-0.87592816200000001</v>
+        <v>-1.3150632000000001E-2</v>
       </c>
       <c r="AF10">
-        <v>-0.87370936499999996</v>
+        <v>-1.1427333879999999</v>
       </c>
       <c r="AG10">
-        <v>0.32607213499999999</v>
+        <v>1.846589517</v>
       </c>
       <c r="AH10">
-        <v>-0.60068233800000004</v>
+        <v>0.84549533399999999</v>
       </c>
       <c r="AI10">
-        <v>-0.99062066500000001</v>
+        <v>-0.50538361200000004</v>
       </c>
       <c r="AJ10">
-        <v>-0.90119897400000004</v>
+        <v>-0.83266834300000003</v>
       </c>
       <c r="AK10">
-        <v>-0.68495555100000005</v>
+        <v>0.15630907599999999</v>
       </c>
       <c r="AL10">
-        <v>-1.0447652510000001</v>
-      </c>
-      <c r="AM10">
-        <v>0.33960465899999998</v>
-      </c>
-      <c r="AN10">
-        <v>-1.217355593</v>
-      </c>
-      <c r="AO10">
-        <v>-1.1874359029999999</v>
-      </c>
-      <c r="AP10">
-        <v>0.43563058300000002</v>
-      </c>
-      <c r="AQ10">
-        <v>-1.1924811500000001</v>
-      </c>
-      <c r="AR10">
-        <v>-1.220664137</v>
-      </c>
-      <c r="AS10">
-        <v>-1.183086649</v>
-      </c>
-      <c r="AT10">
-        <v>-1.3150632000000001E-2</v>
-      </c>
-      <c r="AU10">
-        <v>-1.1427333879999999</v>
-      </c>
-      <c r="AV10">
-        <v>1.846589517</v>
-      </c>
-      <c r="AW10">
-        <v>0.364063892</v>
-      </c>
-      <c r="AX10">
-        <v>0.84549533399999999</v>
-      </c>
-      <c r="AY10">
-        <v>-0.50538361200000004</v>
-      </c>
-      <c r="AZ10">
-        <v>-0.83266834300000003</v>
-      </c>
-      <c r="BA10">
-        <v>0.21565989399999999</v>
-      </c>
-      <c r="BB10">
-        <v>0.228155946</v>
-      </c>
-      <c r="BC10">
-        <v>0.15630907599999999</v>
-      </c>
-      <c r="BD10">
         <v>0.196303849</v>
       </c>
     </row>
